--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>app名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>1000=1</t>
-  </si>
-  <si>
-    <t>最高2000</t>
   </si>
   <si>
     <t>有</t>
@@ -642,30 +639,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -674,71 +671,71 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
+      <c r="D2" s="5">
+        <v>791</v>
       </c>
       <c r="E2" s="5">
         <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="5">
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6">
         <v>30</v>
@@ -747,20 +744,20 @@
         <v>50</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -769,85 +766,85 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <v>0.5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5">
         <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>0.25</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <v>0.25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6">
         <v>1000</v>
@@ -866,13 +863,13 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -883,9 +880,9 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
@@ -900,13 +897,13 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -917,13 +914,13 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -934,13 +931,13 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -951,13 +948,13 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -968,13 +965,13 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -985,13 +982,13 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1002,9 +999,9 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
@@ -1019,13 +1016,13 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1036,9 +1033,9 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1051,9 +1048,9 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1066,9 +1063,9 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1081,9 +1078,9 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1096,9 +1093,9 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1111,9 +1108,9 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1126,9 +1123,9 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1141,7 +1138,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1154,7 +1151,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1167,7 +1164,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1180,7 +1177,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1193,7 +1190,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1206,7 +1203,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1219,7 +1216,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1232,7 +1229,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1245,7 +1242,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>

--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>app名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>聚看点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷宝短视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19000左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,29 +659,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,7 +719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -724,169 +748,175 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="6">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6">
-        <v>50</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="5">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5">
-        <v>30</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30</v>
+      </c>
       <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5">
         <v>0.25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="6">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.5</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.5</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -897,13 +927,13 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -914,13 +944,13 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -931,9 +961,9 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
@@ -948,9 +978,9 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="5" t="s">
@@ -965,47 +995,47 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1016,13 +1046,13 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1033,12 +1063,14 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1048,9 +1080,9 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1063,9 +1095,9 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1078,9 +1110,9 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1093,9 +1125,9 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1108,38 +1140,40 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
@@ -1151,7 +1185,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1164,7 +1198,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1177,7 +1211,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1190,7 +1224,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1203,7 +1237,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1216,7 +1250,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1229,7 +1263,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1242,7 +1276,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1255,6 +1289,19 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
+    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="刷宝" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>app名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +233,29 @@
   </si>
   <si>
     <t>30~60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现微信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米2</t>
+  </si>
+  <si>
+    <t>vivox20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +307,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -322,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,6 +386,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -661,27 +695,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="24.125" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,7 +753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -748,7 +782,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -771,7 +805,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -802,7 +836,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -829,7 +863,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -858,7 +892,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -883,7 +917,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -910,7 +944,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -927,7 +961,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -944,7 +978,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -961,7 +995,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -978,7 +1012,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -995,7 +1029,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1012,7 +1046,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -1029,7 +1063,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1046,7 +1080,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1063,7 +1097,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1080,7 +1114,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1095,7 +1129,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1110,7 +1144,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1125,7 +1159,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -1140,7 +1174,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1155,7 +1189,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -1170,7 +1204,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -1185,7 +1219,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1198,7 +1232,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1211,7 +1245,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1224,7 +1258,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1237,7 +1271,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1250,7 +1284,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1263,7 +1297,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1276,7 +1310,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1289,7 +1323,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1307,4 +1341,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>15001254363</v>
+      </c>
+      <c r="B2" s="5">
+        <v>15001254363</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>18811550706</v>
+      </c>
+      <c r="B3" s="5">
+        <v>18811550706</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>18811500706</v>
+      </c>
+      <c r="B4" s="5">
+        <v>18811550706</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>18811553802</v>
+      </c>
+      <c r="B5" s="5">
+        <v>18811553802</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>13651104102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>18811333264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>13693283264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>18811517357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>18811172159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>app名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>本机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1348,7 +1352,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1434,6 +1438,12 @@
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
+      <c r="B9" s="5">
+        <v>18811550706</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="5">

--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="刷宝" sheetId="2" r:id="rId2"/>
+    <sheet name="总收益统计" sheetId="3" r:id="rId2"/>
+    <sheet name="刷宝统计" sheetId="4" r:id="rId3"/>
+    <sheet name="波波视频" sheetId="5" r:id="rId4"/>
+    <sheet name="刷宝账号对应手机" sheetId="2" r:id="rId5"/>
+    <sheet name="流量卡统计" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>app名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,11 +259,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本机</t>
+    <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小米2</t>
+    <t>n1OEoVFFAVp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1eTVXQKJRb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mate10pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1nrkMXspfQ6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1JRRYPrZqM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1DYFVkNZjQ6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷宝短视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波波视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAHA小视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史总收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音通话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +331,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +385,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +418,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -357,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +478,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,22 +814,22 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,7 +867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -786,7 +896,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -809,7 +919,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -840,7 +950,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -867,7 +977,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -896,7 +1006,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -921,7 +1031,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -948,7 +1058,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -965,7 +1075,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -982,7 +1092,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -999,7 +1109,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1126,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1033,7 +1143,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1050,7 +1160,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -1067,7 +1177,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1084,7 +1194,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1101,7 +1211,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1118,7 +1228,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1133,7 +1243,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1148,7 +1258,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1163,7 +1273,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -1178,7 +1288,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1193,7 +1303,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -1208,7 +1318,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -1223,7 +1333,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1236,7 +1346,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1249,7 +1359,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1262,7 +1372,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1275,7 +1385,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1288,7 +1398,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1301,7 +1411,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1314,7 +1424,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1327,7 +1437,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1349,110 +1459,5393 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:EK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="2" width="13.875" style="14" customWidth="1"/>
+    <col min="3" max="5" width="7.5" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>15001254363</v>
-      </c>
-      <c r="B2" s="5">
-        <v>15001254363</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>18811550706</v>
-      </c>
-      <c r="B3" s="5">
-        <v>18811550706</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>18811500706</v>
-      </c>
-      <c r="B4" s="5">
-        <v>18811550706</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>18811553802</v>
-      </c>
-      <c r="B5" s="5">
-        <v>18811553802</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>13651104102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>18811333264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>13693283264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>18811517357</v>
-      </c>
-      <c r="B9" s="5">
-        <v>18811550706</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>18811172159</v>
-      </c>
-    </row>
+    <row r="1" spans="1:141" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="16">
+        <v>43527</v>
+      </c>
+      <c r="D1" s="16">
+        <v>43528</v>
+      </c>
+      <c r="E1" s="16">
+        <v>43529</v>
+      </c>
+      <c r="F1" s="16">
+        <v>43530</v>
+      </c>
+      <c r="G1" s="16">
+        <v>43531</v>
+      </c>
+      <c r="H1" s="16">
+        <v>43532</v>
+      </c>
+      <c r="I1" s="16">
+        <v>43533</v>
+      </c>
+      <c r="J1" s="16">
+        <v>43534</v>
+      </c>
+      <c r="K1" s="16">
+        <v>43535</v>
+      </c>
+      <c r="L1" s="16">
+        <v>43536</v>
+      </c>
+      <c r="M1" s="16">
+        <v>43537</v>
+      </c>
+      <c r="N1" s="16">
+        <v>43538</v>
+      </c>
+      <c r="O1" s="16">
+        <v>43539</v>
+      </c>
+      <c r="P1" s="16">
+        <v>43540</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>43541</v>
+      </c>
+      <c r="R1" s="16">
+        <v>43542</v>
+      </c>
+      <c r="S1" s="16">
+        <v>43543</v>
+      </c>
+      <c r="T1" s="16">
+        <v>43544</v>
+      </c>
+      <c r="U1" s="16">
+        <v>43545</v>
+      </c>
+      <c r="V1" s="16">
+        <v>43546</v>
+      </c>
+      <c r="W1" s="16">
+        <v>43547</v>
+      </c>
+      <c r="X1" s="16">
+        <v>43548</v>
+      </c>
+      <c r="Y1" s="16">
+        <v>43549</v>
+      </c>
+      <c r="Z1" s="16">
+        <v>43550</v>
+      </c>
+      <c r="AA1" s="16">
+        <v>43551</v>
+      </c>
+      <c r="AB1" s="16">
+        <v>43552</v>
+      </c>
+      <c r="AC1" s="16">
+        <v>43553</v>
+      </c>
+      <c r="AD1" s="16">
+        <v>43554</v>
+      </c>
+      <c r="AE1" s="16">
+        <v>43555</v>
+      </c>
+      <c r="AF1" s="16">
+        <v>43556</v>
+      </c>
+      <c r="AG1" s="16">
+        <v>43557</v>
+      </c>
+      <c r="AH1" s="16">
+        <v>43558</v>
+      </c>
+      <c r="AI1" s="16">
+        <v>43559</v>
+      </c>
+      <c r="AJ1" s="16">
+        <v>43560</v>
+      </c>
+      <c r="AK1" s="16">
+        <v>43561</v>
+      </c>
+      <c r="AL1" s="16">
+        <v>43562</v>
+      </c>
+      <c r="AM1" s="16">
+        <v>43563</v>
+      </c>
+      <c r="AN1" s="16">
+        <v>43564</v>
+      </c>
+      <c r="AO1" s="16">
+        <v>43565</v>
+      </c>
+      <c r="AP1" s="16">
+        <v>43566</v>
+      </c>
+      <c r="AQ1" s="16">
+        <v>43567</v>
+      </c>
+      <c r="AR1" s="16">
+        <v>43568</v>
+      </c>
+      <c r="AS1" s="16">
+        <v>43569</v>
+      </c>
+      <c r="AT1" s="16">
+        <v>43570</v>
+      </c>
+      <c r="AU1" s="16">
+        <v>43571</v>
+      </c>
+      <c r="AV1" s="16">
+        <v>43572</v>
+      </c>
+      <c r="AW1" s="16">
+        <v>43573</v>
+      </c>
+      <c r="AX1" s="16">
+        <v>43574</v>
+      </c>
+      <c r="AY1" s="16">
+        <v>43575</v>
+      </c>
+      <c r="AZ1" s="16">
+        <v>43576</v>
+      </c>
+      <c r="BA1" s="16">
+        <v>43577</v>
+      </c>
+      <c r="BB1" s="16">
+        <v>43578</v>
+      </c>
+      <c r="BC1" s="16">
+        <v>43579</v>
+      </c>
+      <c r="BD1" s="16">
+        <v>43580</v>
+      </c>
+      <c r="BE1" s="16">
+        <v>43581</v>
+      </c>
+      <c r="BF1" s="16">
+        <v>43582</v>
+      </c>
+      <c r="BG1" s="16">
+        <v>43583</v>
+      </c>
+      <c r="BH1" s="16">
+        <v>43584</v>
+      </c>
+      <c r="BI1" s="16">
+        <v>43585</v>
+      </c>
+      <c r="BJ1" s="16">
+        <v>43586</v>
+      </c>
+      <c r="BK1" s="16">
+        <v>43587</v>
+      </c>
+      <c r="BL1" s="16">
+        <v>43588</v>
+      </c>
+      <c r="BM1" s="16">
+        <v>43589</v>
+      </c>
+      <c r="BN1" s="16">
+        <v>43590</v>
+      </c>
+      <c r="BO1" s="16">
+        <v>43591</v>
+      </c>
+      <c r="BP1" s="16">
+        <v>43592</v>
+      </c>
+      <c r="BQ1" s="16">
+        <v>43593</v>
+      </c>
+      <c r="BR1" s="16">
+        <v>43594</v>
+      </c>
+      <c r="BS1" s="16">
+        <v>43595</v>
+      </c>
+      <c r="BT1" s="16">
+        <v>43596</v>
+      </c>
+      <c r="BU1" s="16">
+        <v>43597</v>
+      </c>
+      <c r="BV1" s="16">
+        <v>43598</v>
+      </c>
+      <c r="BW1" s="16">
+        <v>43599</v>
+      </c>
+      <c r="BX1" s="16">
+        <v>43600</v>
+      </c>
+      <c r="BY1" s="16">
+        <v>43601</v>
+      </c>
+      <c r="BZ1" s="16">
+        <v>43602</v>
+      </c>
+      <c r="CA1" s="16">
+        <v>43603</v>
+      </c>
+      <c r="CB1" s="16">
+        <v>43604</v>
+      </c>
+      <c r="CC1" s="16">
+        <v>43605</v>
+      </c>
+      <c r="CD1" s="16">
+        <v>43606</v>
+      </c>
+      <c r="CE1" s="16">
+        <v>43607</v>
+      </c>
+      <c r="CF1" s="16">
+        <v>43608</v>
+      </c>
+      <c r="CG1" s="16">
+        <v>43609</v>
+      </c>
+      <c r="CH1" s="16">
+        <v>43610</v>
+      </c>
+      <c r="CI1" s="16">
+        <v>43611</v>
+      </c>
+      <c r="CJ1" s="16">
+        <v>43612</v>
+      </c>
+      <c r="CK1" s="16">
+        <v>43613</v>
+      </c>
+      <c r="CL1" s="16">
+        <v>43614</v>
+      </c>
+      <c r="CM1" s="16">
+        <v>43615</v>
+      </c>
+      <c r="CN1" s="16">
+        <v>43616</v>
+      </c>
+      <c r="CO1" s="16">
+        <v>43617</v>
+      </c>
+      <c r="CP1" s="16">
+        <v>43618</v>
+      </c>
+      <c r="CQ1" s="16">
+        <v>43619</v>
+      </c>
+      <c r="CR1" s="16">
+        <v>43620</v>
+      </c>
+      <c r="CS1" s="16">
+        <v>43621</v>
+      </c>
+      <c r="CT1" s="16">
+        <v>43622</v>
+      </c>
+      <c r="CU1" s="16">
+        <v>43623</v>
+      </c>
+      <c r="CV1" s="16">
+        <v>43624</v>
+      </c>
+      <c r="CW1" s="16">
+        <v>43625</v>
+      </c>
+      <c r="CX1" s="16">
+        <v>43626</v>
+      </c>
+      <c r="CY1" s="16">
+        <v>43627</v>
+      </c>
+      <c r="CZ1" s="16">
+        <v>43628</v>
+      </c>
+      <c r="DA1" s="16">
+        <v>43629</v>
+      </c>
+      <c r="DB1" s="16">
+        <v>43630</v>
+      </c>
+      <c r="DC1" s="16">
+        <v>43631</v>
+      </c>
+      <c r="DD1" s="16">
+        <v>43632</v>
+      </c>
+      <c r="DE1" s="16">
+        <v>43633</v>
+      </c>
+      <c r="DF1" s="16">
+        <v>43634</v>
+      </c>
+      <c r="DG1" s="16">
+        <v>43635</v>
+      </c>
+      <c r="DH1" s="16">
+        <v>43636</v>
+      </c>
+      <c r="DI1" s="16">
+        <v>43637</v>
+      </c>
+      <c r="DJ1" s="16">
+        <v>43638</v>
+      </c>
+      <c r="DK1" s="16">
+        <v>43639</v>
+      </c>
+      <c r="DL1" s="16">
+        <v>43640</v>
+      </c>
+      <c r="DM1" s="16">
+        <v>43641</v>
+      </c>
+      <c r="DN1" s="16">
+        <v>43642</v>
+      </c>
+      <c r="DO1" s="16">
+        <v>43643</v>
+      </c>
+      <c r="DP1" s="16">
+        <v>43644</v>
+      </c>
+      <c r="DQ1" s="16">
+        <v>43645</v>
+      </c>
+      <c r="DR1" s="16">
+        <v>43646</v>
+      </c>
+      <c r="DS1" s="16">
+        <v>43647</v>
+      </c>
+      <c r="DT1" s="16">
+        <v>43648</v>
+      </c>
+      <c r="DU1" s="16">
+        <v>43649</v>
+      </c>
+      <c r="DV1" s="16">
+        <v>43650</v>
+      </c>
+      <c r="DW1" s="16">
+        <v>43651</v>
+      </c>
+      <c r="DX1" s="16">
+        <v>43652</v>
+      </c>
+      <c r="DY1" s="16">
+        <v>43653</v>
+      </c>
+      <c r="DZ1" s="16">
+        <v>43654</v>
+      </c>
+      <c r="EA1" s="16">
+        <v>43655</v>
+      </c>
+      <c r="EB1" s="16">
+        <v>43656</v>
+      </c>
+      <c r="EC1" s="16">
+        <v>43657</v>
+      </c>
+      <c r="ED1" s="16">
+        <v>43658</v>
+      </c>
+      <c r="EE1" s="16">
+        <v>43659</v>
+      </c>
+      <c r="EF1" s="16">
+        <v>43660</v>
+      </c>
+      <c r="EG1" s="16">
+        <v>43661</v>
+      </c>
+      <c r="EH1" s="16">
+        <v>43662</v>
+      </c>
+      <c r="EI1" s="16">
+        <v>43663</v>
+      </c>
+      <c r="EJ1" s="16">
+        <v>43664</v>
+      </c>
+      <c r="EK1" s="16">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="14">
+        <f>SUM(C2:KD2)</f>
+        <v>30.560000000000002</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="D2" s="14">
+        <v>5.81</v>
+      </c>
+      <c r="E2" s="14">
+        <v>11.53</v>
+      </c>
+      <c r="F2" s="14">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="14">
+        <f t="shared" ref="B3:B13" si="0">SUM(C3:KD3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:141" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="18">
+        <f>SUM(B2:B13)</f>
+        <v>30.560000000000002</v>
+      </c>
+      <c r="C14" s="18">
+        <f t="shared" ref="C14:E14" si="1">SUM(C2:C13)</f>
+        <v>2.76</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="1"/>
+        <v>5.81</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="1"/>
+        <v>11.53</v>
+      </c>
+      <c r="F14" s="18">
+        <f>SUM(F2:F13)</f>
+        <v>10.46</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" ref="G14:T14" si="2">SUM(G2:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:LC15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43527</v>
+      </c>
+      <c r="C1" s="20">
+        <v>43528</v>
+      </c>
+      <c r="D1" s="20">
+        <v>43529</v>
+      </c>
+      <c r="E1" s="20">
+        <v>43530</v>
+      </c>
+      <c r="F1" s="20">
+        <v>43531</v>
+      </c>
+      <c r="G1" s="20">
+        <v>43532</v>
+      </c>
+      <c r="H1" s="20">
+        <v>43533</v>
+      </c>
+      <c r="I1" s="20">
+        <v>43534</v>
+      </c>
+      <c r="J1" s="20">
+        <v>43535</v>
+      </c>
+      <c r="K1" s="20">
+        <v>43536</v>
+      </c>
+      <c r="L1" s="20">
+        <v>43537</v>
+      </c>
+      <c r="M1" s="20">
+        <v>43538</v>
+      </c>
+      <c r="N1" s="20">
+        <v>43539</v>
+      </c>
+      <c r="O1" s="20">
+        <v>43540</v>
+      </c>
+      <c r="P1" s="20">
+        <v>43541</v>
+      </c>
+      <c r="Q1" s="20">
+        <v>43542</v>
+      </c>
+      <c r="R1" s="20">
+        <v>43543</v>
+      </c>
+      <c r="S1" s="20">
+        <v>43544</v>
+      </c>
+      <c r="T1" s="20">
+        <v>43545</v>
+      </c>
+      <c r="U1" s="20">
+        <v>43546</v>
+      </c>
+      <c r="V1" s="20">
+        <v>43547</v>
+      </c>
+      <c r="W1" s="20">
+        <v>43548</v>
+      </c>
+      <c r="X1" s="20">
+        <v>43549</v>
+      </c>
+      <c r="Y1" s="20">
+        <v>43550</v>
+      </c>
+      <c r="Z1" s="20">
+        <v>43551</v>
+      </c>
+      <c r="AA1" s="20">
+        <v>43552</v>
+      </c>
+      <c r="AB1" s="20">
+        <v>43553</v>
+      </c>
+      <c r="AC1" s="20">
+        <v>43554</v>
+      </c>
+      <c r="AD1" s="20">
+        <v>43555</v>
+      </c>
+      <c r="AE1" s="20">
+        <v>43556</v>
+      </c>
+      <c r="AF1" s="20">
+        <v>43557</v>
+      </c>
+      <c r="AG1" s="20">
+        <v>43558</v>
+      </c>
+      <c r="AH1" s="20">
+        <v>43559</v>
+      </c>
+      <c r="AI1" s="20">
+        <v>43560</v>
+      </c>
+      <c r="AJ1" s="20">
+        <v>43561</v>
+      </c>
+      <c r="AK1" s="20">
+        <v>43562</v>
+      </c>
+      <c r="AL1" s="20">
+        <v>43563</v>
+      </c>
+      <c r="AM1" s="20">
+        <v>43564</v>
+      </c>
+      <c r="AN1" s="20">
+        <v>43565</v>
+      </c>
+      <c r="AO1" s="20">
+        <v>43566</v>
+      </c>
+      <c r="AP1" s="20">
+        <v>43567</v>
+      </c>
+      <c r="AQ1" s="20">
+        <v>43568</v>
+      </c>
+      <c r="AR1" s="20">
+        <v>43569</v>
+      </c>
+      <c r="AS1" s="20">
+        <v>43570</v>
+      </c>
+      <c r="AT1" s="20">
+        <v>43571</v>
+      </c>
+      <c r="AU1" s="20">
+        <v>43572</v>
+      </c>
+      <c r="AV1" s="20">
+        <v>43573</v>
+      </c>
+      <c r="AW1" s="20">
+        <v>43574</v>
+      </c>
+      <c r="AX1" s="20">
+        <v>43575</v>
+      </c>
+      <c r="AY1" s="20">
+        <v>43576</v>
+      </c>
+      <c r="AZ1" s="20">
+        <v>43577</v>
+      </c>
+      <c r="BA1" s="20">
+        <v>43578</v>
+      </c>
+      <c r="BB1" s="20">
+        <v>43579</v>
+      </c>
+      <c r="BC1" s="20">
+        <v>43580</v>
+      </c>
+      <c r="BD1" s="20">
+        <v>43581</v>
+      </c>
+      <c r="BE1" s="20">
+        <v>43582</v>
+      </c>
+      <c r="BF1" s="20">
+        <v>43583</v>
+      </c>
+      <c r="BG1" s="20">
+        <v>43584</v>
+      </c>
+      <c r="BH1" s="20">
+        <v>43585</v>
+      </c>
+      <c r="BI1" s="20">
+        <v>43586</v>
+      </c>
+      <c r="BJ1" s="20">
+        <v>43587</v>
+      </c>
+      <c r="BK1" s="20">
+        <v>43588</v>
+      </c>
+      <c r="BL1" s="20">
+        <v>43589</v>
+      </c>
+      <c r="BM1" s="20">
+        <v>43590</v>
+      </c>
+      <c r="BN1" s="20">
+        <v>43591</v>
+      </c>
+      <c r="BO1" s="20">
+        <v>43592</v>
+      </c>
+      <c r="BP1" s="20">
+        <v>43593</v>
+      </c>
+      <c r="BQ1" s="20">
+        <v>43594</v>
+      </c>
+      <c r="BR1" s="20">
+        <v>43595</v>
+      </c>
+      <c r="BS1" s="20">
+        <v>43596</v>
+      </c>
+      <c r="BT1" s="20">
+        <v>43597</v>
+      </c>
+      <c r="BU1" s="20">
+        <v>43598</v>
+      </c>
+      <c r="BV1" s="20">
+        <v>43599</v>
+      </c>
+      <c r="BW1" s="20">
+        <v>43600</v>
+      </c>
+      <c r="BX1" s="20">
+        <v>43601</v>
+      </c>
+      <c r="BY1" s="20">
+        <v>43602</v>
+      </c>
+      <c r="BZ1" s="20">
+        <v>43603</v>
+      </c>
+      <c r="CA1" s="20">
+        <v>43604</v>
+      </c>
+      <c r="CB1" s="20">
+        <v>43605</v>
+      </c>
+      <c r="CC1" s="20">
+        <v>43606</v>
+      </c>
+      <c r="CD1" s="20">
+        <v>43607</v>
+      </c>
+      <c r="CE1" s="20">
+        <v>43608</v>
+      </c>
+      <c r="CF1" s="20">
+        <v>43609</v>
+      </c>
+      <c r="CG1" s="20">
+        <v>43610</v>
+      </c>
+      <c r="CH1" s="20">
+        <v>43611</v>
+      </c>
+      <c r="CI1" s="20">
+        <v>43612</v>
+      </c>
+      <c r="CJ1" s="20">
+        <v>43613</v>
+      </c>
+      <c r="CK1" s="20">
+        <v>43614</v>
+      </c>
+      <c r="CL1" s="20">
+        <v>43615</v>
+      </c>
+      <c r="CM1" s="20">
+        <v>43616</v>
+      </c>
+      <c r="CN1" s="20">
+        <v>43617</v>
+      </c>
+      <c r="CO1" s="20">
+        <v>43618</v>
+      </c>
+      <c r="CP1" s="20">
+        <v>43619</v>
+      </c>
+      <c r="CQ1" s="20">
+        <v>43620</v>
+      </c>
+      <c r="CR1" s="20">
+        <v>43621</v>
+      </c>
+      <c r="CS1" s="20">
+        <v>43622</v>
+      </c>
+      <c r="CT1" s="20">
+        <v>43623</v>
+      </c>
+      <c r="CU1" s="20">
+        <v>43624</v>
+      </c>
+      <c r="CV1" s="20">
+        <v>43625</v>
+      </c>
+      <c r="CW1" s="20">
+        <v>43626</v>
+      </c>
+      <c r="CX1" s="20">
+        <v>43627</v>
+      </c>
+      <c r="CY1" s="20">
+        <v>43628</v>
+      </c>
+      <c r="CZ1" s="20">
+        <v>43629</v>
+      </c>
+      <c r="DA1" s="20">
+        <v>43630</v>
+      </c>
+      <c r="DB1" s="20">
+        <v>43631</v>
+      </c>
+      <c r="DC1" s="20">
+        <v>43632</v>
+      </c>
+      <c r="DD1" s="20">
+        <v>43633</v>
+      </c>
+      <c r="DE1" s="20">
+        <v>43634</v>
+      </c>
+      <c r="DF1" s="20">
+        <v>43635</v>
+      </c>
+      <c r="DG1" s="20">
+        <v>43636</v>
+      </c>
+      <c r="DH1" s="20">
+        <v>43637</v>
+      </c>
+      <c r="DI1" s="20">
+        <v>43638</v>
+      </c>
+      <c r="DJ1" s="20">
+        <v>43639</v>
+      </c>
+      <c r="DK1" s="20">
+        <v>43640</v>
+      </c>
+      <c r="DL1" s="20">
+        <v>43641</v>
+      </c>
+      <c r="DM1" s="20">
+        <v>43642</v>
+      </c>
+      <c r="DN1" s="20">
+        <v>43643</v>
+      </c>
+      <c r="DO1" s="20">
+        <v>43644</v>
+      </c>
+      <c r="DP1" s="20">
+        <v>43645</v>
+      </c>
+      <c r="DQ1" s="20">
+        <v>43646</v>
+      </c>
+      <c r="DR1" s="20">
+        <v>43647</v>
+      </c>
+      <c r="DS1" s="20">
+        <v>43648</v>
+      </c>
+      <c r="DT1" s="20">
+        <v>43649</v>
+      </c>
+      <c r="DU1" s="20">
+        <v>43650</v>
+      </c>
+      <c r="DV1" s="20">
+        <v>43651</v>
+      </c>
+      <c r="DW1" s="20">
+        <v>43652</v>
+      </c>
+      <c r="DX1" s="20">
+        <v>43653</v>
+      </c>
+      <c r="DY1" s="20">
+        <v>43654</v>
+      </c>
+      <c r="DZ1" s="20">
+        <v>43655</v>
+      </c>
+      <c r="EA1" s="20">
+        <v>43656</v>
+      </c>
+      <c r="EB1" s="20">
+        <v>43657</v>
+      </c>
+      <c r="EC1" s="20">
+        <v>43658</v>
+      </c>
+      <c r="ED1" s="20">
+        <v>43659</v>
+      </c>
+      <c r="EE1" s="20">
+        <v>43660</v>
+      </c>
+      <c r="EF1" s="20">
+        <v>43661</v>
+      </c>
+      <c r="EG1" s="20">
+        <v>43662</v>
+      </c>
+      <c r="EH1" s="20">
+        <v>43663</v>
+      </c>
+      <c r="EI1" s="20">
+        <v>43664</v>
+      </c>
+      <c r="EJ1" s="20">
+        <v>43665</v>
+      </c>
+      <c r="EK1" s="20">
+        <v>43666</v>
+      </c>
+      <c r="EL1" s="20">
+        <v>43667</v>
+      </c>
+      <c r="EM1" s="20">
+        <v>43668</v>
+      </c>
+      <c r="EN1" s="20">
+        <v>43669</v>
+      </c>
+      <c r="EO1" s="20">
+        <v>43670</v>
+      </c>
+      <c r="EP1" s="20">
+        <v>43671</v>
+      </c>
+      <c r="EQ1" s="20">
+        <v>43672</v>
+      </c>
+      <c r="ER1" s="20">
+        <v>43673</v>
+      </c>
+      <c r="ES1" s="20">
+        <v>43674</v>
+      </c>
+      <c r="ET1" s="20">
+        <v>43675</v>
+      </c>
+      <c r="EU1" s="20">
+        <v>43676</v>
+      </c>
+      <c r="EV1" s="20">
+        <v>43677</v>
+      </c>
+      <c r="EW1" s="20">
+        <v>43678</v>
+      </c>
+      <c r="EX1" s="20">
+        <v>43679</v>
+      </c>
+      <c r="EY1" s="20">
+        <v>43680</v>
+      </c>
+      <c r="EZ1" s="20">
+        <v>43681</v>
+      </c>
+      <c r="FA1" s="20">
+        <v>43682</v>
+      </c>
+      <c r="FB1" s="20">
+        <v>43683</v>
+      </c>
+      <c r="FC1" s="20">
+        <v>43684</v>
+      </c>
+      <c r="FD1" s="20">
+        <v>43685</v>
+      </c>
+      <c r="FE1" s="20">
+        <v>43686</v>
+      </c>
+      <c r="FF1" s="20">
+        <v>43687</v>
+      </c>
+      <c r="FG1" s="20">
+        <v>43688</v>
+      </c>
+      <c r="FH1" s="20">
+        <v>43689</v>
+      </c>
+      <c r="FI1" s="20">
+        <v>43690</v>
+      </c>
+      <c r="FJ1" s="20">
+        <v>43691</v>
+      </c>
+      <c r="FK1" s="20">
+        <v>43692</v>
+      </c>
+      <c r="FL1" s="20">
+        <v>43693</v>
+      </c>
+      <c r="FM1" s="20">
+        <v>43694</v>
+      </c>
+      <c r="FN1" s="20">
+        <v>43695</v>
+      </c>
+      <c r="FO1" s="20">
+        <v>43696</v>
+      </c>
+      <c r="FP1" s="20">
+        <v>43697</v>
+      </c>
+      <c r="FQ1" s="20">
+        <v>43698</v>
+      </c>
+      <c r="FR1" s="20">
+        <v>43699</v>
+      </c>
+      <c r="FS1" s="20">
+        <v>43700</v>
+      </c>
+      <c r="FT1" s="20">
+        <v>43701</v>
+      </c>
+      <c r="FU1" s="20">
+        <v>43702</v>
+      </c>
+      <c r="FV1" s="20">
+        <v>43703</v>
+      </c>
+      <c r="FW1" s="20">
+        <v>43704</v>
+      </c>
+      <c r="FX1" s="20">
+        <v>43705</v>
+      </c>
+      <c r="FY1" s="20">
+        <v>43706</v>
+      </c>
+      <c r="FZ1" s="20">
+        <v>43707</v>
+      </c>
+      <c r="GA1" s="20">
+        <v>43708</v>
+      </c>
+      <c r="GB1" s="20">
+        <v>43709</v>
+      </c>
+      <c r="GC1" s="20">
+        <v>43710</v>
+      </c>
+      <c r="GD1" s="20">
+        <v>43711</v>
+      </c>
+      <c r="GE1" s="20">
+        <v>43712</v>
+      </c>
+      <c r="GF1" s="20">
+        <v>43713</v>
+      </c>
+      <c r="GG1" s="20">
+        <v>43714</v>
+      </c>
+      <c r="GH1" s="20">
+        <v>43715</v>
+      </c>
+      <c r="GI1" s="20">
+        <v>43716</v>
+      </c>
+      <c r="GJ1" s="20">
+        <v>43717</v>
+      </c>
+      <c r="GK1" s="20">
+        <v>43718</v>
+      </c>
+      <c r="GL1" s="20">
+        <v>43719</v>
+      </c>
+      <c r="GM1" s="20">
+        <v>43720</v>
+      </c>
+      <c r="GN1" s="20">
+        <v>43721</v>
+      </c>
+      <c r="GO1" s="20">
+        <v>43722</v>
+      </c>
+      <c r="GP1" s="20">
+        <v>43723</v>
+      </c>
+      <c r="GQ1" s="20">
+        <v>43724</v>
+      </c>
+      <c r="GR1" s="20">
+        <v>43725</v>
+      </c>
+      <c r="GS1" s="20">
+        <v>43726</v>
+      </c>
+      <c r="GT1" s="20">
+        <v>43727</v>
+      </c>
+      <c r="GU1" s="20">
+        <v>43728</v>
+      </c>
+      <c r="GV1" s="20">
+        <v>43729</v>
+      </c>
+      <c r="GW1" s="20">
+        <v>43730</v>
+      </c>
+      <c r="GX1" s="20">
+        <v>43731</v>
+      </c>
+      <c r="GY1" s="20">
+        <v>43732</v>
+      </c>
+      <c r="GZ1" s="20">
+        <v>43733</v>
+      </c>
+      <c r="HA1" s="20">
+        <v>43734</v>
+      </c>
+      <c r="HB1" s="20">
+        <v>43735</v>
+      </c>
+      <c r="HC1" s="20">
+        <v>43736</v>
+      </c>
+      <c r="HD1" s="20">
+        <v>43737</v>
+      </c>
+      <c r="HE1" s="20">
+        <v>43738</v>
+      </c>
+      <c r="HF1" s="20">
+        <v>43739</v>
+      </c>
+      <c r="HG1" s="20">
+        <v>43740</v>
+      </c>
+      <c r="HH1" s="20">
+        <v>43741</v>
+      </c>
+      <c r="HI1" s="20">
+        <v>43742</v>
+      </c>
+      <c r="HJ1" s="20">
+        <v>43743</v>
+      </c>
+      <c r="HK1" s="20">
+        <v>43744</v>
+      </c>
+      <c r="HL1" s="20">
+        <v>43745</v>
+      </c>
+      <c r="HM1" s="20">
+        <v>43746</v>
+      </c>
+      <c r="HN1" s="20">
+        <v>43747</v>
+      </c>
+      <c r="HO1" s="20">
+        <v>43748</v>
+      </c>
+      <c r="HP1" s="20">
+        <v>43749</v>
+      </c>
+      <c r="HQ1" s="20">
+        <v>43750</v>
+      </c>
+      <c r="HR1" s="20">
+        <v>43751</v>
+      </c>
+      <c r="HS1" s="20">
+        <v>43752</v>
+      </c>
+      <c r="HT1" s="20">
+        <v>43753</v>
+      </c>
+      <c r="HU1" s="20">
+        <v>43754</v>
+      </c>
+      <c r="HV1" s="20">
+        <v>43755</v>
+      </c>
+      <c r="HW1" s="20">
+        <v>43756</v>
+      </c>
+      <c r="HX1" s="20">
+        <v>43757</v>
+      </c>
+      <c r="HY1" s="20">
+        <v>43758</v>
+      </c>
+      <c r="HZ1" s="20">
+        <v>43759</v>
+      </c>
+      <c r="IA1" s="20">
+        <v>43760</v>
+      </c>
+      <c r="IB1" s="20">
+        <v>43761</v>
+      </c>
+      <c r="IC1" s="20">
+        <v>43762</v>
+      </c>
+      <c r="ID1" s="20">
+        <v>43763</v>
+      </c>
+      <c r="IE1" s="20">
+        <v>43764</v>
+      </c>
+      <c r="IF1" s="20">
+        <v>43765</v>
+      </c>
+      <c r="IG1" s="20">
+        <v>43766</v>
+      </c>
+      <c r="IH1" s="20">
+        <v>43767</v>
+      </c>
+      <c r="II1" s="20">
+        <v>43768</v>
+      </c>
+      <c r="IJ1" s="20">
+        <v>43769</v>
+      </c>
+      <c r="IK1" s="20">
+        <v>43770</v>
+      </c>
+      <c r="IL1" s="20">
+        <v>43771</v>
+      </c>
+      <c r="IM1" s="20">
+        <v>43772</v>
+      </c>
+      <c r="IN1" s="20">
+        <v>43773</v>
+      </c>
+      <c r="IO1" s="20">
+        <v>43774</v>
+      </c>
+      <c r="IP1" s="20">
+        <v>43775</v>
+      </c>
+      <c r="IQ1" s="20">
+        <v>43776</v>
+      </c>
+      <c r="IR1" s="20">
+        <v>43777</v>
+      </c>
+      <c r="IS1" s="20">
+        <v>43778</v>
+      </c>
+      <c r="IT1" s="20">
+        <v>43779</v>
+      </c>
+      <c r="IU1" s="20">
+        <v>43780</v>
+      </c>
+      <c r="IV1" s="20">
+        <v>43781</v>
+      </c>
+      <c r="IW1" s="20">
+        <v>43782</v>
+      </c>
+      <c r="IX1" s="20">
+        <v>43783</v>
+      </c>
+      <c r="IY1" s="20">
+        <v>43784</v>
+      </c>
+      <c r="IZ1" s="20">
+        <v>43785</v>
+      </c>
+      <c r="JA1" s="20">
+        <v>43786</v>
+      </c>
+      <c r="JB1" s="20">
+        <v>43787</v>
+      </c>
+      <c r="JC1" s="20">
+        <v>43788</v>
+      </c>
+      <c r="JD1" s="20">
+        <v>43789</v>
+      </c>
+      <c r="JE1" s="20">
+        <v>43790</v>
+      </c>
+      <c r="JF1" s="20">
+        <v>43791</v>
+      </c>
+      <c r="JG1" s="20">
+        <v>43792</v>
+      </c>
+      <c r="JH1" s="20">
+        <v>43793</v>
+      </c>
+      <c r="JI1" s="20">
+        <v>43794</v>
+      </c>
+      <c r="JJ1" s="20">
+        <v>43795</v>
+      </c>
+      <c r="JK1" s="20">
+        <v>43796</v>
+      </c>
+      <c r="JL1" s="20">
+        <v>43797</v>
+      </c>
+      <c r="JM1" s="20">
+        <v>43798</v>
+      </c>
+      <c r="JN1" s="20">
+        <v>43799</v>
+      </c>
+      <c r="JO1" s="20">
+        <v>43800</v>
+      </c>
+      <c r="JP1" s="20">
+        <v>43801</v>
+      </c>
+      <c r="JQ1" s="20">
+        <v>43802</v>
+      </c>
+      <c r="JR1" s="20">
+        <v>43803</v>
+      </c>
+      <c r="JS1" s="20">
+        <v>43804</v>
+      </c>
+      <c r="JT1" s="20">
+        <v>43805</v>
+      </c>
+      <c r="JU1" s="20">
+        <v>43806</v>
+      </c>
+      <c r="JV1" s="20">
+        <v>43807</v>
+      </c>
+      <c r="JW1" s="20">
+        <v>43808</v>
+      </c>
+      <c r="JX1" s="20">
+        <v>43809</v>
+      </c>
+      <c r="JY1" s="20">
+        <v>43810</v>
+      </c>
+      <c r="JZ1" s="20">
+        <v>43811</v>
+      </c>
+      <c r="KA1" s="20">
+        <v>43812</v>
+      </c>
+      <c r="KB1" s="20">
+        <v>43813</v>
+      </c>
+      <c r="KC1" s="20">
+        <v>43814</v>
+      </c>
+      <c r="KD1" s="20">
+        <v>43815</v>
+      </c>
+      <c r="KE1" s="20">
+        <v>43816</v>
+      </c>
+      <c r="KF1" s="20">
+        <v>43817</v>
+      </c>
+      <c r="KG1" s="20">
+        <v>43818</v>
+      </c>
+      <c r="KH1" s="20">
+        <v>43819</v>
+      </c>
+      <c r="KI1" s="20">
+        <v>43820</v>
+      </c>
+      <c r="KJ1" s="20">
+        <v>43821</v>
+      </c>
+      <c r="KK1" s="20">
+        <v>43822</v>
+      </c>
+      <c r="KL1" s="20">
+        <v>43823</v>
+      </c>
+      <c r="KM1" s="20">
+        <v>43824</v>
+      </c>
+      <c r="KN1" s="20">
+        <v>43825</v>
+      </c>
+      <c r="KO1" s="20">
+        <v>43826</v>
+      </c>
+      <c r="KP1" s="20">
+        <v>43827</v>
+      </c>
+      <c r="KQ1" s="20">
+        <v>43828</v>
+      </c>
+      <c r="KR1" s="20">
+        <v>43829</v>
+      </c>
+      <c r="KS1" s="20">
+        <v>43830</v>
+      </c>
+      <c r="KT1" s="20">
+        <v>43831</v>
+      </c>
+      <c r="KU1" s="20">
+        <v>43832</v>
+      </c>
+      <c r="KV1" s="20">
+        <v>43833</v>
+      </c>
+      <c r="KW1" s="20">
+        <v>43834</v>
+      </c>
+      <c r="KX1" s="20">
+        <v>43835</v>
+      </c>
+      <c r="KY1" s="20">
+        <v>43836</v>
+      </c>
+      <c r="KZ1" s="20">
+        <v>43837</v>
+      </c>
+      <c r="LA1" s="20">
+        <v>43838</v>
+      </c>
+      <c r="LB1" s="20">
+        <v>43839</v>
+      </c>
+      <c r="LC1" s="20">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>15001254363</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3.33</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6.71</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>18811550706</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>18811500706</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>18811553802</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>13651104102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>18811333264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>13693283264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>18811517357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>18811172159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="21">
+        <f>SUM(B2:B14)</f>
+        <v>2.76</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" ref="C15:BN15" si="0">SUM(C2:C14)</f>
+        <v>5.81</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="0"/>
+        <v>11.53</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>10.459999999999999</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BO15" s="21">
+        <f t="shared" ref="BO15:DZ15" si="1">SUM(BO2:BO14)</f>
+        <v>0</v>
+      </c>
+      <c r="BP15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CS15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CX15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CY15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DA15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DB15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DC15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DD15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DE15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DF15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DG15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DH15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DI15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DK15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DL15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DM15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DN15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DO15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DP15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA15" s="21">
+        <f t="shared" ref="EA15:GL15" si="2">SUM(EA2:EA14)</f>
+        <v>0</v>
+      </c>
+      <c r="EB15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EC15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ED15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EE15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EF15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EG15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EH15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EI15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EK15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EL15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EM15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EN15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EO15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EP15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EQ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ER15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ES15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ET15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EU15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EV15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EW15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EX15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EY15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EZ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FA15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FB15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FC15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FD15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FE15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FF15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FG15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FH15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FI15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FJ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FK15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FL15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FM15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FN15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FO15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FP15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FQ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FR15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FS15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FT15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FU15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FV15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FW15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FX15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FY15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FZ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GA15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GB15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GC15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GD15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GE15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GF15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GG15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GH15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GI15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GJ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GK15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GL15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GM15" s="21">
+        <f t="shared" ref="GM15:IX15" si="3">SUM(GM2:GM14)</f>
+        <v>0</v>
+      </c>
+      <c r="GN15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GO15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GP15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GQ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GR15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GS15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GT15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GU15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GV15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GW15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GX15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GY15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GZ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HA15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HB15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HC15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HD15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HE15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HF15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HG15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HH15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HI15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HJ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HK15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HL15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HM15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HN15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HO15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HP15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HQ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HR15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HS15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HT15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HU15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HV15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HW15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HX15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HY15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HZ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IA15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IB15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IC15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ID15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IE15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IF15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IG15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IH15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="II15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IJ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IK15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IL15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IM15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IN15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IO15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IP15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IQ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IR15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IS15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IT15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IU15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IV15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IW15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IX15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IY15" s="21">
+        <f t="shared" ref="IY15:LC15" si="4">SUM(IY2:IY14)</f>
+        <v>0</v>
+      </c>
+      <c r="IZ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JA15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JB15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JC15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JD15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JE15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JF15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JG15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JH15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JI15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JJ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JK15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JL15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JM15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JN15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JO15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JP15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JQ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JR15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JS15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JT15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JU15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JV15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JW15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JX15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JY15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JZ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KA15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KB15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KC15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KD15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KE15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KF15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KG15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KH15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KI15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KJ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KK15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KL15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KM15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KN15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KO15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KP15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KQ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KR15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KS15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KT15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KU15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KV15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KW15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KX15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KY15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KZ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LA15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LB15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LC15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:LC15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="20">
+        <v>43527</v>
+      </c>
+      <c r="C1" s="20">
+        <v>43528</v>
+      </c>
+      <c r="D1" s="20">
+        <v>43529</v>
+      </c>
+      <c r="E1" s="20">
+        <v>43530</v>
+      </c>
+      <c r="F1" s="20">
+        <v>43531</v>
+      </c>
+      <c r="G1" s="20">
+        <v>43532</v>
+      </c>
+      <c r="H1" s="20">
+        <v>43533</v>
+      </c>
+      <c r="I1" s="20">
+        <v>43534</v>
+      </c>
+      <c r="J1" s="20">
+        <v>43535</v>
+      </c>
+      <c r="K1" s="20">
+        <v>43536</v>
+      </c>
+      <c r="L1" s="20">
+        <v>43537</v>
+      </c>
+      <c r="M1" s="20">
+        <v>43538</v>
+      </c>
+      <c r="N1" s="20">
+        <v>43539</v>
+      </c>
+      <c r="O1" s="20">
+        <v>43540</v>
+      </c>
+      <c r="P1" s="20">
+        <v>43541</v>
+      </c>
+      <c r="Q1" s="20">
+        <v>43542</v>
+      </c>
+      <c r="R1" s="20">
+        <v>43543</v>
+      </c>
+      <c r="S1" s="20">
+        <v>43544</v>
+      </c>
+      <c r="T1" s="20">
+        <v>43545</v>
+      </c>
+      <c r="U1" s="20">
+        <v>43546</v>
+      </c>
+      <c r="V1" s="20">
+        <v>43547</v>
+      </c>
+      <c r="W1" s="20">
+        <v>43548</v>
+      </c>
+      <c r="X1" s="20">
+        <v>43549</v>
+      </c>
+      <c r="Y1" s="20">
+        <v>43550</v>
+      </c>
+      <c r="Z1" s="20">
+        <v>43551</v>
+      </c>
+      <c r="AA1" s="20">
+        <v>43552</v>
+      </c>
+      <c r="AB1" s="20">
+        <v>43553</v>
+      </c>
+      <c r="AC1" s="20">
+        <v>43554</v>
+      </c>
+      <c r="AD1" s="20">
+        <v>43555</v>
+      </c>
+      <c r="AE1" s="20">
+        <v>43556</v>
+      </c>
+      <c r="AF1" s="20">
+        <v>43557</v>
+      </c>
+      <c r="AG1" s="20">
+        <v>43558</v>
+      </c>
+      <c r="AH1" s="20">
+        <v>43559</v>
+      </c>
+      <c r="AI1" s="20">
+        <v>43560</v>
+      </c>
+      <c r="AJ1" s="20">
+        <v>43561</v>
+      </c>
+      <c r="AK1" s="20">
+        <v>43562</v>
+      </c>
+      <c r="AL1" s="20">
+        <v>43563</v>
+      </c>
+      <c r="AM1" s="20">
+        <v>43564</v>
+      </c>
+      <c r="AN1" s="20">
+        <v>43565</v>
+      </c>
+      <c r="AO1" s="20">
+        <v>43566</v>
+      </c>
+      <c r="AP1" s="20">
+        <v>43567</v>
+      </c>
+      <c r="AQ1" s="20">
+        <v>43568</v>
+      </c>
+      <c r="AR1" s="20">
+        <v>43569</v>
+      </c>
+      <c r="AS1" s="20">
+        <v>43570</v>
+      </c>
+      <c r="AT1" s="20">
+        <v>43571</v>
+      </c>
+      <c r="AU1" s="20">
+        <v>43572</v>
+      </c>
+      <c r="AV1" s="20">
+        <v>43573</v>
+      </c>
+      <c r="AW1" s="20">
+        <v>43574</v>
+      </c>
+      <c r="AX1" s="20">
+        <v>43575</v>
+      </c>
+      <c r="AY1" s="20">
+        <v>43576</v>
+      </c>
+      <c r="AZ1" s="20">
+        <v>43577</v>
+      </c>
+      <c r="BA1" s="20">
+        <v>43578</v>
+      </c>
+      <c r="BB1" s="20">
+        <v>43579</v>
+      </c>
+      <c r="BC1" s="20">
+        <v>43580</v>
+      </c>
+      <c r="BD1" s="20">
+        <v>43581</v>
+      </c>
+      <c r="BE1" s="20">
+        <v>43582</v>
+      </c>
+      <c r="BF1" s="20">
+        <v>43583</v>
+      </c>
+      <c r="BG1" s="20">
+        <v>43584</v>
+      </c>
+      <c r="BH1" s="20">
+        <v>43585</v>
+      </c>
+      <c r="BI1" s="20">
+        <v>43586</v>
+      </c>
+      <c r="BJ1" s="20">
+        <v>43587</v>
+      </c>
+      <c r="BK1" s="20">
+        <v>43588</v>
+      </c>
+      <c r="BL1" s="20">
+        <v>43589</v>
+      </c>
+      <c r="BM1" s="20">
+        <v>43590</v>
+      </c>
+      <c r="BN1" s="20">
+        <v>43591</v>
+      </c>
+      <c r="BO1" s="20">
+        <v>43592</v>
+      </c>
+      <c r="BP1" s="20">
+        <v>43593</v>
+      </c>
+      <c r="BQ1" s="20">
+        <v>43594</v>
+      </c>
+      <c r="BR1" s="20">
+        <v>43595</v>
+      </c>
+      <c r="BS1" s="20">
+        <v>43596</v>
+      </c>
+      <c r="BT1" s="20">
+        <v>43597</v>
+      </c>
+      <c r="BU1" s="20">
+        <v>43598</v>
+      </c>
+      <c r="BV1" s="20">
+        <v>43599</v>
+      </c>
+      <c r="BW1" s="20">
+        <v>43600</v>
+      </c>
+      <c r="BX1" s="20">
+        <v>43601</v>
+      </c>
+      <c r="BY1" s="20">
+        <v>43602</v>
+      </c>
+      <c r="BZ1" s="20">
+        <v>43603</v>
+      </c>
+      <c r="CA1" s="20">
+        <v>43604</v>
+      </c>
+      <c r="CB1" s="20">
+        <v>43605</v>
+      </c>
+      <c r="CC1" s="20">
+        <v>43606</v>
+      </c>
+      <c r="CD1" s="20">
+        <v>43607</v>
+      </c>
+      <c r="CE1" s="20">
+        <v>43608</v>
+      </c>
+      <c r="CF1" s="20">
+        <v>43609</v>
+      </c>
+      <c r="CG1" s="20">
+        <v>43610</v>
+      </c>
+      <c r="CH1" s="20">
+        <v>43611</v>
+      </c>
+      <c r="CI1" s="20">
+        <v>43612</v>
+      </c>
+      <c r="CJ1" s="20">
+        <v>43613</v>
+      </c>
+      <c r="CK1" s="20">
+        <v>43614</v>
+      </c>
+      <c r="CL1" s="20">
+        <v>43615</v>
+      </c>
+      <c r="CM1" s="20">
+        <v>43616</v>
+      </c>
+      <c r="CN1" s="20">
+        <v>43617</v>
+      </c>
+      <c r="CO1" s="20">
+        <v>43618</v>
+      </c>
+      <c r="CP1" s="20">
+        <v>43619</v>
+      </c>
+      <c r="CQ1" s="20">
+        <v>43620</v>
+      </c>
+      <c r="CR1" s="20">
+        <v>43621</v>
+      </c>
+      <c r="CS1" s="20">
+        <v>43622</v>
+      </c>
+      <c r="CT1" s="20">
+        <v>43623</v>
+      </c>
+      <c r="CU1" s="20">
+        <v>43624</v>
+      </c>
+      <c r="CV1" s="20">
+        <v>43625</v>
+      </c>
+      <c r="CW1" s="20">
+        <v>43626</v>
+      </c>
+      <c r="CX1" s="20">
+        <v>43627</v>
+      </c>
+      <c r="CY1" s="20">
+        <v>43628</v>
+      </c>
+      <c r="CZ1" s="20">
+        <v>43629</v>
+      </c>
+      <c r="DA1" s="20">
+        <v>43630</v>
+      </c>
+      <c r="DB1" s="20">
+        <v>43631</v>
+      </c>
+      <c r="DC1" s="20">
+        <v>43632</v>
+      </c>
+      <c r="DD1" s="20">
+        <v>43633</v>
+      </c>
+      <c r="DE1" s="20">
+        <v>43634</v>
+      </c>
+      <c r="DF1" s="20">
+        <v>43635</v>
+      </c>
+      <c r="DG1" s="20">
+        <v>43636</v>
+      </c>
+      <c r="DH1" s="20">
+        <v>43637</v>
+      </c>
+      <c r="DI1" s="20">
+        <v>43638</v>
+      </c>
+      <c r="DJ1" s="20">
+        <v>43639</v>
+      </c>
+      <c r="DK1" s="20">
+        <v>43640</v>
+      </c>
+      <c r="DL1" s="20">
+        <v>43641</v>
+      </c>
+      <c r="DM1" s="20">
+        <v>43642</v>
+      </c>
+      <c r="DN1" s="20">
+        <v>43643</v>
+      </c>
+      <c r="DO1" s="20">
+        <v>43644</v>
+      </c>
+      <c r="DP1" s="20">
+        <v>43645</v>
+      </c>
+      <c r="DQ1" s="20">
+        <v>43646</v>
+      </c>
+      <c r="DR1" s="20">
+        <v>43647</v>
+      </c>
+      <c r="DS1" s="20">
+        <v>43648</v>
+      </c>
+      <c r="DT1" s="20">
+        <v>43649</v>
+      </c>
+      <c r="DU1" s="20">
+        <v>43650</v>
+      </c>
+      <c r="DV1" s="20">
+        <v>43651</v>
+      </c>
+      <c r="DW1" s="20">
+        <v>43652</v>
+      </c>
+      <c r="DX1" s="20">
+        <v>43653</v>
+      </c>
+      <c r="DY1" s="20">
+        <v>43654</v>
+      </c>
+      <c r="DZ1" s="20">
+        <v>43655</v>
+      </c>
+      <c r="EA1" s="20">
+        <v>43656</v>
+      </c>
+      <c r="EB1" s="20">
+        <v>43657</v>
+      </c>
+      <c r="EC1" s="20">
+        <v>43658</v>
+      </c>
+      <c r="ED1" s="20">
+        <v>43659</v>
+      </c>
+      <c r="EE1" s="20">
+        <v>43660</v>
+      </c>
+      <c r="EF1" s="20">
+        <v>43661</v>
+      </c>
+      <c r="EG1" s="20">
+        <v>43662</v>
+      </c>
+      <c r="EH1" s="20">
+        <v>43663</v>
+      </c>
+      <c r="EI1" s="20">
+        <v>43664</v>
+      </c>
+      <c r="EJ1" s="20">
+        <v>43665</v>
+      </c>
+      <c r="EK1" s="20">
+        <v>43666</v>
+      </c>
+      <c r="EL1" s="20">
+        <v>43667</v>
+      </c>
+      <c r="EM1" s="20">
+        <v>43668</v>
+      </c>
+      <c r="EN1" s="20">
+        <v>43669</v>
+      </c>
+      <c r="EO1" s="20">
+        <v>43670</v>
+      </c>
+      <c r="EP1" s="20">
+        <v>43671</v>
+      </c>
+      <c r="EQ1" s="20">
+        <v>43672</v>
+      </c>
+      <c r="ER1" s="20">
+        <v>43673</v>
+      </c>
+      <c r="ES1" s="20">
+        <v>43674</v>
+      </c>
+      <c r="ET1" s="20">
+        <v>43675</v>
+      </c>
+      <c r="EU1" s="20">
+        <v>43676</v>
+      </c>
+      <c r="EV1" s="20">
+        <v>43677</v>
+      </c>
+      <c r="EW1" s="20">
+        <v>43678</v>
+      </c>
+      <c r="EX1" s="20">
+        <v>43679</v>
+      </c>
+      <c r="EY1" s="20">
+        <v>43680</v>
+      </c>
+      <c r="EZ1" s="20">
+        <v>43681</v>
+      </c>
+      <c r="FA1" s="20">
+        <v>43682</v>
+      </c>
+      <c r="FB1" s="20">
+        <v>43683</v>
+      </c>
+      <c r="FC1" s="20">
+        <v>43684</v>
+      </c>
+      <c r="FD1" s="20">
+        <v>43685</v>
+      </c>
+      <c r="FE1" s="20">
+        <v>43686</v>
+      </c>
+      <c r="FF1" s="20">
+        <v>43687</v>
+      </c>
+      <c r="FG1" s="20">
+        <v>43688</v>
+      </c>
+      <c r="FH1" s="20">
+        <v>43689</v>
+      </c>
+      <c r="FI1" s="20">
+        <v>43690</v>
+      </c>
+      <c r="FJ1" s="20">
+        <v>43691</v>
+      </c>
+      <c r="FK1" s="20">
+        <v>43692</v>
+      </c>
+      <c r="FL1" s="20">
+        <v>43693</v>
+      </c>
+      <c r="FM1" s="20">
+        <v>43694</v>
+      </c>
+      <c r="FN1" s="20">
+        <v>43695</v>
+      </c>
+      <c r="FO1" s="20">
+        <v>43696</v>
+      </c>
+      <c r="FP1" s="20">
+        <v>43697</v>
+      </c>
+      <c r="FQ1" s="20">
+        <v>43698</v>
+      </c>
+      <c r="FR1" s="20">
+        <v>43699</v>
+      </c>
+      <c r="FS1" s="20">
+        <v>43700</v>
+      </c>
+      <c r="FT1" s="20">
+        <v>43701</v>
+      </c>
+      <c r="FU1" s="20">
+        <v>43702</v>
+      </c>
+      <c r="FV1" s="20">
+        <v>43703</v>
+      </c>
+      <c r="FW1" s="20">
+        <v>43704</v>
+      </c>
+      <c r="FX1" s="20">
+        <v>43705</v>
+      </c>
+      <c r="FY1" s="20">
+        <v>43706</v>
+      </c>
+      <c r="FZ1" s="20">
+        <v>43707</v>
+      </c>
+      <c r="GA1" s="20">
+        <v>43708</v>
+      </c>
+      <c r="GB1" s="20">
+        <v>43709</v>
+      </c>
+      <c r="GC1" s="20">
+        <v>43710</v>
+      </c>
+      <c r="GD1" s="20">
+        <v>43711</v>
+      </c>
+      <c r="GE1" s="20">
+        <v>43712</v>
+      </c>
+      <c r="GF1" s="20">
+        <v>43713</v>
+      </c>
+      <c r="GG1" s="20">
+        <v>43714</v>
+      </c>
+      <c r="GH1" s="20">
+        <v>43715</v>
+      </c>
+      <c r="GI1" s="20">
+        <v>43716</v>
+      </c>
+      <c r="GJ1" s="20">
+        <v>43717</v>
+      </c>
+      <c r="GK1" s="20">
+        <v>43718</v>
+      </c>
+      <c r="GL1" s="20">
+        <v>43719</v>
+      </c>
+      <c r="GM1" s="20">
+        <v>43720</v>
+      </c>
+      <c r="GN1" s="20">
+        <v>43721</v>
+      </c>
+      <c r="GO1" s="20">
+        <v>43722</v>
+      </c>
+      <c r="GP1" s="20">
+        <v>43723</v>
+      </c>
+      <c r="GQ1" s="20">
+        <v>43724</v>
+      </c>
+      <c r="GR1" s="20">
+        <v>43725</v>
+      </c>
+      <c r="GS1" s="20">
+        <v>43726</v>
+      </c>
+      <c r="GT1" s="20">
+        <v>43727</v>
+      </c>
+      <c r="GU1" s="20">
+        <v>43728</v>
+      </c>
+      <c r="GV1" s="20">
+        <v>43729</v>
+      </c>
+      <c r="GW1" s="20">
+        <v>43730</v>
+      </c>
+      <c r="GX1" s="20">
+        <v>43731</v>
+      </c>
+      <c r="GY1" s="20">
+        <v>43732</v>
+      </c>
+      <c r="GZ1" s="20">
+        <v>43733</v>
+      </c>
+      <c r="HA1" s="20">
+        <v>43734</v>
+      </c>
+      <c r="HB1" s="20">
+        <v>43735</v>
+      </c>
+      <c r="HC1" s="20">
+        <v>43736</v>
+      </c>
+      <c r="HD1" s="20">
+        <v>43737</v>
+      </c>
+      <c r="HE1" s="20">
+        <v>43738</v>
+      </c>
+      <c r="HF1" s="20">
+        <v>43739</v>
+      </c>
+      <c r="HG1" s="20">
+        <v>43740</v>
+      </c>
+      <c r="HH1" s="20">
+        <v>43741</v>
+      </c>
+      <c r="HI1" s="20">
+        <v>43742</v>
+      </c>
+      <c r="HJ1" s="20">
+        <v>43743</v>
+      </c>
+      <c r="HK1" s="20">
+        <v>43744</v>
+      </c>
+      <c r="HL1" s="20">
+        <v>43745</v>
+      </c>
+      <c r="HM1" s="20">
+        <v>43746</v>
+      </c>
+      <c r="HN1" s="20">
+        <v>43747</v>
+      </c>
+      <c r="HO1" s="20">
+        <v>43748</v>
+      </c>
+      <c r="HP1" s="20">
+        <v>43749</v>
+      </c>
+      <c r="HQ1" s="20">
+        <v>43750</v>
+      </c>
+      <c r="HR1" s="20">
+        <v>43751</v>
+      </c>
+      <c r="HS1" s="20">
+        <v>43752</v>
+      </c>
+      <c r="HT1" s="20">
+        <v>43753</v>
+      </c>
+      <c r="HU1" s="20">
+        <v>43754</v>
+      </c>
+      <c r="HV1" s="20">
+        <v>43755</v>
+      </c>
+      <c r="HW1" s="20">
+        <v>43756</v>
+      </c>
+      <c r="HX1" s="20">
+        <v>43757</v>
+      </c>
+      <c r="HY1" s="20">
+        <v>43758</v>
+      </c>
+      <c r="HZ1" s="20">
+        <v>43759</v>
+      </c>
+      <c r="IA1" s="20">
+        <v>43760</v>
+      </c>
+      <c r="IB1" s="20">
+        <v>43761</v>
+      </c>
+      <c r="IC1" s="20">
+        <v>43762</v>
+      </c>
+      <c r="ID1" s="20">
+        <v>43763</v>
+      </c>
+      <c r="IE1" s="20">
+        <v>43764</v>
+      </c>
+      <c r="IF1" s="20">
+        <v>43765</v>
+      </c>
+      <c r="IG1" s="20">
+        <v>43766</v>
+      </c>
+      <c r="IH1" s="20">
+        <v>43767</v>
+      </c>
+      <c r="II1" s="20">
+        <v>43768</v>
+      </c>
+      <c r="IJ1" s="20">
+        <v>43769</v>
+      </c>
+      <c r="IK1" s="20">
+        <v>43770</v>
+      </c>
+      <c r="IL1" s="20">
+        <v>43771</v>
+      </c>
+      <c r="IM1" s="20">
+        <v>43772</v>
+      </c>
+      <c r="IN1" s="20">
+        <v>43773</v>
+      </c>
+      <c r="IO1" s="20">
+        <v>43774</v>
+      </c>
+      <c r="IP1" s="20">
+        <v>43775</v>
+      </c>
+      <c r="IQ1" s="20">
+        <v>43776</v>
+      </c>
+      <c r="IR1" s="20">
+        <v>43777</v>
+      </c>
+      <c r="IS1" s="20">
+        <v>43778</v>
+      </c>
+      <c r="IT1" s="20">
+        <v>43779</v>
+      </c>
+      <c r="IU1" s="20">
+        <v>43780</v>
+      </c>
+      <c r="IV1" s="20">
+        <v>43781</v>
+      </c>
+      <c r="IW1" s="20">
+        <v>43782</v>
+      </c>
+      <c r="IX1" s="20">
+        <v>43783</v>
+      </c>
+      <c r="IY1" s="20">
+        <v>43784</v>
+      </c>
+      <c r="IZ1" s="20">
+        <v>43785</v>
+      </c>
+      <c r="JA1" s="20">
+        <v>43786</v>
+      </c>
+      <c r="JB1" s="20">
+        <v>43787</v>
+      </c>
+      <c r="JC1" s="20">
+        <v>43788</v>
+      </c>
+      <c r="JD1" s="20">
+        <v>43789</v>
+      </c>
+      <c r="JE1" s="20">
+        <v>43790</v>
+      </c>
+      <c r="JF1" s="20">
+        <v>43791</v>
+      </c>
+      <c r="JG1" s="20">
+        <v>43792</v>
+      </c>
+      <c r="JH1" s="20">
+        <v>43793</v>
+      </c>
+      <c r="JI1" s="20">
+        <v>43794</v>
+      </c>
+      <c r="JJ1" s="20">
+        <v>43795</v>
+      </c>
+      <c r="JK1" s="20">
+        <v>43796</v>
+      </c>
+      <c r="JL1" s="20">
+        <v>43797</v>
+      </c>
+      <c r="JM1" s="20">
+        <v>43798</v>
+      </c>
+      <c r="JN1" s="20">
+        <v>43799</v>
+      </c>
+      <c r="JO1" s="20">
+        <v>43800</v>
+      </c>
+      <c r="JP1" s="20">
+        <v>43801</v>
+      </c>
+      <c r="JQ1" s="20">
+        <v>43802</v>
+      </c>
+      <c r="JR1" s="20">
+        <v>43803</v>
+      </c>
+      <c r="JS1" s="20">
+        <v>43804</v>
+      </c>
+      <c r="JT1" s="20">
+        <v>43805</v>
+      </c>
+      <c r="JU1" s="20">
+        <v>43806</v>
+      </c>
+      <c r="JV1" s="20">
+        <v>43807</v>
+      </c>
+      <c r="JW1" s="20">
+        <v>43808</v>
+      </c>
+      <c r="JX1" s="20">
+        <v>43809</v>
+      </c>
+      <c r="JY1" s="20">
+        <v>43810</v>
+      </c>
+      <c r="JZ1" s="20">
+        <v>43811</v>
+      </c>
+      <c r="KA1" s="20">
+        <v>43812</v>
+      </c>
+      <c r="KB1" s="20">
+        <v>43813</v>
+      </c>
+      <c r="KC1" s="20">
+        <v>43814</v>
+      </c>
+      <c r="KD1" s="20">
+        <v>43815</v>
+      </c>
+      <c r="KE1" s="20">
+        <v>43816</v>
+      </c>
+      <c r="KF1" s="20">
+        <v>43817</v>
+      </c>
+      <c r="KG1" s="20">
+        <v>43818</v>
+      </c>
+      <c r="KH1" s="20">
+        <v>43819</v>
+      </c>
+      <c r="KI1" s="20">
+        <v>43820</v>
+      </c>
+      <c r="KJ1" s="20">
+        <v>43821</v>
+      </c>
+      <c r="KK1" s="20">
+        <v>43822</v>
+      </c>
+      <c r="KL1" s="20">
+        <v>43823</v>
+      </c>
+      <c r="KM1" s="20">
+        <v>43824</v>
+      </c>
+      <c r="KN1" s="20">
+        <v>43825</v>
+      </c>
+      <c r="KO1" s="20">
+        <v>43826</v>
+      </c>
+      <c r="KP1" s="20">
+        <v>43827</v>
+      </c>
+      <c r="KQ1" s="20">
+        <v>43828</v>
+      </c>
+      <c r="KR1" s="20">
+        <v>43829</v>
+      </c>
+      <c r="KS1" s="20">
+        <v>43830</v>
+      </c>
+      <c r="KT1" s="20">
+        <v>43831</v>
+      </c>
+      <c r="KU1" s="20">
+        <v>43832</v>
+      </c>
+      <c r="KV1" s="20">
+        <v>43833</v>
+      </c>
+      <c r="KW1" s="20">
+        <v>43834</v>
+      </c>
+      <c r="KX1" s="20">
+        <v>43835</v>
+      </c>
+      <c r="KY1" s="20">
+        <v>43836</v>
+      </c>
+      <c r="KZ1" s="20">
+        <v>43837</v>
+      </c>
+      <c r="LA1" s="20">
+        <v>43838</v>
+      </c>
+      <c r="LB1" s="20">
+        <v>43839</v>
+      </c>
+      <c r="LC1" s="20">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>15001254363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>18811550706</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>18811500706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>18811553802</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>13651104102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>18811333264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>13693283264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>18811517357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>18811172159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="21">
+        <f>SUM(B2:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" ref="C15:BN15" si="0">SUM(C2:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BO15" s="21">
+        <f t="shared" ref="BO15:DZ15" si="1">SUM(BO2:BO14)</f>
+        <v>0</v>
+      </c>
+      <c r="BP15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CS15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CX15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CY15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DA15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DB15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DC15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DD15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DE15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DF15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DG15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DH15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DI15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DK15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DL15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DM15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DN15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DO15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DP15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA15" s="21">
+        <f t="shared" ref="EA15:GL15" si="2">SUM(EA2:EA14)</f>
+        <v>0</v>
+      </c>
+      <c r="EB15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EC15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ED15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EE15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EF15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EG15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EH15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EI15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EK15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EL15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EM15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EN15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EO15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EP15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EQ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ER15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ES15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ET15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EU15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EV15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EW15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EX15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EY15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EZ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FA15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FB15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FC15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FD15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FE15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FF15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FG15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FH15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FI15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FJ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FK15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FL15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FM15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FN15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FO15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FP15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FQ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FR15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FS15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FT15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FU15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FV15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FW15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FX15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FY15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FZ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GA15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GB15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GC15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GD15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GE15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GF15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GG15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GH15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GI15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GJ15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GK15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GL15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GM15" s="21">
+        <f t="shared" ref="GM15:IX15" si="3">SUM(GM2:GM14)</f>
+        <v>0</v>
+      </c>
+      <c r="GN15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GO15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GP15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GQ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GR15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GS15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GT15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GU15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GV15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GW15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GX15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GY15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GZ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HA15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HB15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HC15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HD15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HE15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HF15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HG15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HH15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HI15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HJ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HK15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HL15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HM15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HN15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HO15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HP15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HQ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HR15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HS15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HT15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HU15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HV15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HW15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HX15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HY15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HZ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IA15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IB15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IC15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ID15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IE15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IF15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IG15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IH15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="II15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IJ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IK15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IL15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IM15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IN15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IO15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IP15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IQ15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IR15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IS15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IT15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IU15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IV15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IW15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IX15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IY15" s="21">
+        <f t="shared" ref="IY15:LC15" si="4">SUM(IY2:IY14)</f>
+        <v>0</v>
+      </c>
+      <c r="IZ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JA15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JB15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JC15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JD15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JE15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JF15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JG15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JH15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JI15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JJ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JK15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JL15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JM15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JN15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JO15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JP15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JQ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JR15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JS15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JT15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JU15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JV15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JW15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JX15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JY15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JZ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KA15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KB15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KC15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KD15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KE15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KF15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KG15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KH15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KI15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KJ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KK15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KL15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KM15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KN15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KO15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KP15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KQ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KR15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KS15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KT15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KU15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KV15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KW15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KX15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KY15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KZ15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LA15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LB15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LC15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="13.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>15001254363</v>
+      </c>
+      <c r="B2" s="5">
+        <v>15001254363</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>18811550706</v>
+      </c>
+      <c r="B3" s="5">
+        <v>18811550706</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>18811500706</v>
+      </c>
+      <c r="B4" s="5">
+        <v>18811550706</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>18811553802</v>
+      </c>
+      <c r="B5" s="5">
+        <v>18811553802</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>13651104102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>18811333264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>13693283264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>18811517357</v>
+      </c>
+      <c r="B9" s="5">
+        <v>18811550706</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>18811172159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
   <si>
     <t>app名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,22 @@
   </si>
   <si>
     <t>语音通话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米快视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好看视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +348,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -393,7 +409,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +446,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -443,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,7 +504,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -491,10 +513,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -502,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,22 +839,22 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="24.125" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,7 +892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -896,7 +921,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -919,7 +944,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -950,7 +975,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -977,7 +1002,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1006,7 +1031,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1056,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1083,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1100,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1117,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1109,7 +1134,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1126,7 +1151,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1143,7 +1168,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1160,7 +1185,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -1177,7 +1202,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1219,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1236,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1228,7 +1253,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1243,7 +1268,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1258,7 +1283,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1273,7 +1298,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -1288,7 +1313,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1328,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -1318,7 +1343,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -1333,7 +1358,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1346,7 +1371,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1359,7 +1384,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1372,7 +1397,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1385,7 +1410,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1398,7 +1423,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1411,7 +1436,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1424,7 +1449,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1437,7 +1462,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1461,21 +1486,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EK31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.875" style="14" customWidth="1"/>
-    <col min="3" max="5" width="7.5" style="14" customWidth="1"/>
+    <col min="1" max="2" width="13.88671875" style="14" customWidth="1"/>
+    <col min="3" max="5" width="7.44140625" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:141" s="15" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>74</v>
       </c>
@@ -1900,7 +1925,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="2" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>75</v>
       </c>
@@ -1921,85 +1946,100 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="3" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="14">
         <f t="shared" ref="B3:B13" si="0">SUM(C3:KD3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:141" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:141" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:141" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:141" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="18">
         <f>SUM(B2:B13)</f>
-        <v>30.560000000000002</v>
+        <v>32.800000000000004</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" ref="C14:E14" si="1">SUM(C2:C13)</f>
@@ -2015,7 +2055,7 @@
       </c>
       <c r="F14" s="18">
         <f>SUM(F2:F13)</f>
-        <v>10.46</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" ref="G14:T14" si="2">SUM(G2:G13)</f>
@@ -2074,23 +2114,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2107,13 +2147,13 @@
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -3060,7 +3100,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A2" s="22">
         <v>15001254363</v>
       </c>
@@ -3077,7 +3117,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A3" s="22">
         <v>18811550706</v>
       </c>
@@ -3094,7 +3134,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A4" s="22">
         <v>18811500706</v>
       </c>
@@ -3108,7 +3148,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A5" s="22">
         <v>18811553802</v>
       </c>
@@ -3122,32 +3162,32 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21" t="s">
         <v>78</v>
       </c>
@@ -4422,13 +4462,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -5375,12 +5415,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A2" s="22">
         <v>15001254363</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A3" s="22">
         <v>18811550706</v>
       </c>
@@ -5388,12 +5428,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A4" s="22">
         <v>18811500706</v>
       </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A5" s="22">
         <v>18811553802</v>
       </c>
@@ -5401,32 +5441,32 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21" t="s">
         <v>78</v>
       </c>
@@ -6701,14 +6741,14 @@
       <selection activeCell="D10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="13.5" style="14" customWidth="1"/>
+    <col min="1" max="3" width="13.44140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="15" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="14"/>
+    <col min="5" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>62</v>
       </c>
@@ -6723,7 +6763,7 @@
       </c>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>15001254363</v>
       </c>
@@ -6737,7 +6777,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>18811550706</v>
       </c>
@@ -6751,7 +6791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>18811500706</v>
       </c>
@@ -6765,7 +6805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>18811553802</v>
       </c>
@@ -6779,22 +6819,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
@@ -6805,7 +6845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
@@ -6821,16 +6861,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>80</v>
       </c>

--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>app名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,77 @@
   </si>
   <si>
     <t>好看视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信小黑牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.4.11b8372bD3BXsM&amp;id=586692512558&amp;ns=1&amp;abbucket=9&amp;sku_properties=30626:35039546</t>
+  </si>
+  <si>
+    <t>100G 超20 3g 超100 128kbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信大神卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超20 1Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通冰神卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超40 3 超100 128Kbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联动任意用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超25 1Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通26元100G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通小顺卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过20 1Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14G-100G 超出部分1元1G扣费 扣除费用次月15号返还 超出100自费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信永久自费100G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超40 3 上线100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通仁烁通信专卖店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,22 +910,22 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +963,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -921,7 +992,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -944,7 +1015,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -975,7 +1046,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1073,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1102,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1127,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1083,7 +1154,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1100,7 +1171,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1188,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1205,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1151,7 +1222,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1239,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1185,7 +1256,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -1202,7 +1273,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1219,7 +1290,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1236,7 +1307,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1253,7 +1324,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1268,7 +1339,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1283,7 +1354,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1298,7 +1369,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -1313,7 +1384,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1328,7 +1399,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -1343,7 +1414,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -1358,7 +1429,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1371,7 +1442,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1384,7 +1455,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1397,7 +1468,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1410,7 +1481,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1423,7 +1494,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1436,7 +1507,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1449,7 +1520,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1462,7 +1533,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1486,21 +1557,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3" max="5" width="7.44140625" style="14" customWidth="1"/>
+    <col min="1" max="2" width="13.875" style="14" customWidth="1"/>
+    <col min="3" max="5" width="7.5" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="15" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:141" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>74</v>
       </c>
@@ -1925,7 +1996,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="2" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>75</v>
       </c>
@@ -1946,7 +2017,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="3" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>76</v>
       </c>
@@ -1958,7 +2029,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:141" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:141" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -1967,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:141" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:141" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>84</v>
       </c>
@@ -1976,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>85</v>
       </c>
@@ -1985,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>86</v>
       </c>
@@ -1994,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>87</v>
       </c>
@@ -2003,37 +2074,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:141" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:141" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>78</v>
       </c>
@@ -2114,23 +2185,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2144,16 +2215,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -3100,7 +3171,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>15001254363</v>
       </c>
@@ -3116,8 +3187,11 @@
       <c r="E2" s="6">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
+      <c r="F2" s="6">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>18811550706</v>
       </c>
@@ -3133,8 +3207,11 @@
       <c r="E3" s="6">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
+      <c r="F3" s="6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>18811500706</v>
       </c>
@@ -3147,8 +3224,11 @@
       <c r="E4" s="6">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
+      <c r="F4" s="6">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>18811553802</v>
       </c>
@@ -3161,33 +3241,36 @@
       <c r="E5" s="6">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
+      <c r="F5" s="6">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>78</v>
       </c>
@@ -3209,7 +3292,7 @@
       </c>
       <c r="F15" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="0"/>
@@ -4451,6 +4534,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4462,13 +4546,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -5415,12 +5499,12 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>15001254363</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>18811550706</v>
       </c>
@@ -5428,12 +5512,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>18811500706</v>
       </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>18811553802</v>
       </c>
@@ -5441,32 +5525,32 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:315" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>78</v>
       </c>
@@ -6738,17 +6822,17 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.44140625" style="14" customWidth="1"/>
+    <col min="1" max="3" width="13.5" style="14" customWidth="1"/>
     <col min="4" max="4" width="15" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="14"/>
+    <col min="5" max="16384" width="8.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>62</v>
       </c>
@@ -6763,7 +6847,7 @@
       </c>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>15001254363</v>
       </c>
@@ -6777,7 +6861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>18811550706</v>
       </c>
@@ -6791,7 +6875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>18811500706</v>
       </c>
@@ -6805,7 +6889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>18811553802</v>
       </c>
@@ -6819,22 +6903,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
@@ -6845,7 +6929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
@@ -6859,18 +6943,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="25.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="59.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="141.5" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
@@ -6882,10 +6971,109 @@
       </c>
       <c r="D1" s="6" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="6">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="6">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="6">
+        <v>500</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6">
+        <v>29.4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="6">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="6">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="6">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="沙发视频" sheetId="2" r:id="rId5"/>
     <sheet name="流量卡统计" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -398,11 +398,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,7 +646,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,10 +678,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,7 +712,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -889,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -897,7 +895,7 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
@@ -912,7 +910,7 @@
     <col min="11" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -950,7 +948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="21" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -979,7 +977,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="21" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -1002,7 +1000,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1033,7 +1031,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1058,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="21" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1089,7 +1087,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="21" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +1112,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="21" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1139,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="21" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1158,7 +1156,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1173,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="21" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1190,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="21" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1207,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1226,7 +1224,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="21" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1243,7 +1241,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -1260,7 +1258,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="21" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1275,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="21" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1294,7 +1292,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="21" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1311,7 +1309,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="21" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +1324,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="21" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1341,7 +1339,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="21" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1356,7 +1354,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="21" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -1371,7 +1369,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="21" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1386,7 +1384,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="21" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -1401,7 +1399,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -1416,7 +1414,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="21" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1429,7 +1427,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="21" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1442,7 +1440,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="21" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1455,7 +1453,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="21" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1468,7 +1466,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="21" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1481,7 +1479,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="21" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1494,7 +1492,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="21" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1507,7 +1505,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="21" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1520,7 +1518,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="21" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1541,24 +1539,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EK33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="13.875" style="14" customWidth="1"/>
     <col min="3" max="5" width="7.5" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:141" s="15" customFormat="1" ht="20.25">
       <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
@@ -1983,13 +1981,13 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="2" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:141" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="14">
         <f>SUM(C2:KD2)</f>
-        <v>35.510000000000005</v>
+        <v>46.540000000000006</v>
       </c>
       <c r="C2" s="14">
         <v>2.76</v>
@@ -2009,8 +2007,14 @@
       <c r="H2" s="14">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="14">
+        <v>4.82</v>
+      </c>
+      <c r="J2" s="14">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:141" ht="19.5" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:141" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:141" s="22" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>66</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:141" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:141" s="22" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>73</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:141" ht="19.5" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>74</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:141" ht="19.5" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>75</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:141" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>76</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:141" ht="19.5" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>96</v>
       </c>
@@ -2076,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:141" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>97</v>
       </c>
@@ -2085,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:141" ht="19.5" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>98</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:141" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>99</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:141" ht="19.5" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>100</v>
       </c>
@@ -2112,25 +2116,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:141" ht="19.5" customHeight="1">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:141" ht="19.5" customHeight="1">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:141" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:141" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="18">
         <f>SUM(B2:B15)</f>
-        <v>37.750000000000007</v>
+        <v>48.780000000000008</v>
       </c>
       <c r="C16" s="18">
         <f t="shared" ref="C16:E16" si="1">SUM(C2:C15)</f>
@@ -2158,11 +2162,11 @@
       </c>
       <c r="I16" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.21</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="2"/>
@@ -2205,23 +2209,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="19.5" customHeight="1"/>
+    <row r="18" ht="19.5" customHeight="1"/>
+    <row r="19" ht="19.5" customHeight="1"/>
+    <row r="20" ht="19.5" customHeight="1"/>
+    <row r="21" ht="19.5" customHeight="1"/>
+    <row r="22" ht="19.5" customHeight="1"/>
+    <row r="23" ht="19.5" customHeight="1"/>
+    <row r="24" ht="19.5" customHeight="1"/>
+    <row r="25" ht="19.5" customHeight="1"/>
+    <row r="26" ht="19.5" customHeight="1"/>
+    <row r="27" ht="19.5" customHeight="1"/>
+    <row r="28" ht="19.5" customHeight="1"/>
+    <row r="29" ht="19.5" customHeight="1"/>
+    <row r="30" ht="19.5" customHeight="1"/>
+    <row r="31" ht="19.5" customHeight="1"/>
+    <row r="32" ht="19.5" customHeight="1"/>
+    <row r="33" ht="19.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2230,21 +2234,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:LC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:315" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:315">
       <c r="A2" s="21">
         <v>15001254363</v>
       </c>
@@ -3213,8 +3217,14 @@
       <c r="G2" s="6">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="H2" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:315">
       <c r="A3" s="21">
         <v>18811550706</v>
       </c>
@@ -3236,8 +3246,14 @@
       <c r="G3" s="6">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="H3" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:315">
       <c r="A4" s="21">
         <v>18811500706</v>
       </c>
@@ -3256,8 +3272,14 @@
       <c r="G4" s="6">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="H4" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:315">
       <c r="A5" s="21">
         <v>18811553802</v>
       </c>
@@ -3276,33 +3298,39 @@
       <c r="G5" s="6">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="H5" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:315">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:315">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:315">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:315">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:315">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:315" s="20" customFormat="1">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
@@ -3332,11 +3360,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="0"/>
@@ -4571,20 +4599,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:LC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:315" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -5531,7 +5559,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:315">
       <c r="A2" s="21">
         <v>15001254363</v>
       </c>
@@ -5539,7 +5567,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:315">
       <c r="A3" s="21">
         <v>18811550706</v>
       </c>
@@ -5547,7 +5575,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:315">
       <c r="A4" s="21">
         <v>18811500706</v>
       </c>
@@ -5558,7 +5586,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:315">
       <c r="A5" s="21">
         <v>18811553802</v>
       </c>
@@ -5569,32 +5597,32 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:315">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:315">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:315">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:315">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:315">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:315" s="20" customFormat="1">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
@@ -6862,20 +6890,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:LC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:315" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -7822,7 +7850,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:315">
       <c r="A2" s="21">
         <v>15001254363</v>
       </c>
@@ -7840,7 +7868,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:315">
       <c r="A3" s="21">
         <v>18811550706</v>
       </c>
@@ -7858,7 +7886,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:315">
       <c r="A4" s="23">
         <v>18811500706</v>
       </c>
@@ -7867,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:315">
       <c r="A5" s="21">
         <v>18811553802</v>
       </c>
@@ -7885,7 +7913,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:315">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
@@ -7894,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:315">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
@@ -7903,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:315">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
@@ -7912,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:315">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
@@ -7921,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:315">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
@@ -7930,31 +7958,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:315">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:315">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:315">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:315">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:315" s="20" customFormat="1">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
@@ -9223,14 +9251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="25.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
@@ -9240,7 +9268,7 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -9254,7 +9282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -9271,7 +9299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -9288,7 +9316,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
@@ -9302,7 +9330,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
@@ -9316,7 +9344,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>87</v>
       </c>
@@ -9330,7 +9358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>89</v>
       </c>
@@ -9341,7 +9369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>92</v>
       </c>

--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -1546,7 +1546,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5"/>
@@ -2020,10 +2020,13 @@
       </c>
       <c r="B3" s="14">
         <f t="shared" ref="B3:B15" si="0">SUM(C3:KD3)</f>
-        <v>2.2400000000000002</v>
+        <v>6.6400000000000006</v>
       </c>
       <c r="F3" s="14">
         <v>2.2400000000000002</v>
+      </c>
+      <c r="J3" s="14">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:141" s="22" customFormat="1" ht="19.5" customHeight="1">
@@ -2071,11 +2074,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:141" ht="19.5" customHeight="1">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:141" s="22" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2134,7 +2137,7 @@
       </c>
       <c r="B16" s="18">
         <f>SUM(B2:B15)</f>
-        <v>48.780000000000008</v>
+        <v>53.180000000000007</v>
       </c>
       <c r="C16" s="18">
         <f t="shared" ref="C16:E16" si="1">SUM(C2:C15)</f>
@@ -2166,7 +2169,7 @@
       </c>
       <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>6.21</v>
+        <v>10.61</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="2"/>
@@ -4603,7 +4606,7 @@
   <dimension ref="A1:LC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5566,6 +5569,9 @@
       <c r="G2" s="6">
         <v>0.9</v>
       </c>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:315">
       <c r="A3" s="21">
@@ -5574,6 +5580,9 @@
       <c r="E3" s="6">
         <v>0.67</v>
       </c>
+      <c r="I3" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="4" spans="1:315">
       <c r="A4" s="21">
@@ -5585,6 +5594,9 @@
       <c r="G4" s="6">
         <v>0.1</v>
       </c>
+      <c r="I4" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" spans="1:315">
       <c r="A5" s="21">
@@ -5596,6 +5608,9 @@
       <c r="G5" s="6">
         <v>0.5</v>
       </c>
+      <c r="I5" s="6">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="6" spans="1:315">
       <c r="A6" s="5">
@@ -5656,7 +5671,7 @@
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="0"/>

--- a/阅读软件统计.xlsx
+++ b/阅读软件统计.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="总收益统计" sheetId="3" r:id="rId1"/>
     <sheet name="刷宝统计" sheetId="4" r:id="rId2"/>
     <sheet name="波波视频" sheetId="5" r:id="rId3"/>
-    <sheet name="沙发视频" sheetId="2" r:id="rId4"/>
-    <sheet name="种子视频" sheetId="7" r:id="rId5"/>
+    <sheet name="种子视频" sheetId="7" r:id="rId4"/>
+    <sheet name="沙发视频" sheetId="2" r:id="rId5"/>
     <sheet name="好看" sheetId="8" r:id="rId6"/>
     <sheet name="惠视频" sheetId="9" r:id="rId7"/>
     <sheet name="流量卡统计" sheetId="6" r:id="rId8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>app名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,15 +386,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>慧视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>想看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优看点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,13 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,11 +587,14 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,23 +900,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EK33"/>
+  <dimension ref="A1:MY30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" style="14" customWidth="1"/>
-    <col min="3" max="5" width="7.44140625" style="14" customWidth="1"/>
+    <col min="1" max="2" width="13.875" style="14" customWidth="1"/>
+    <col min="3" max="5" width="7.5" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="15" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:363" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
@@ -1333,14 +1340,680 @@
       <c r="EK1" s="16">
         <v>43665</v>
       </c>
+      <c r="EL1" s="16">
+        <v>43666</v>
+      </c>
+      <c r="EM1" s="16">
+        <v>43667</v>
+      </c>
+      <c r="EN1" s="16">
+        <v>43668</v>
+      </c>
+      <c r="EO1" s="16">
+        <v>43669</v>
+      </c>
+      <c r="EP1" s="16">
+        <v>43670</v>
+      </c>
+      <c r="EQ1" s="16">
+        <v>43671</v>
+      </c>
+      <c r="ER1" s="16">
+        <v>43672</v>
+      </c>
+      <c r="ES1" s="16">
+        <v>43673</v>
+      </c>
+      <c r="ET1" s="16">
+        <v>43674</v>
+      </c>
+      <c r="EU1" s="16">
+        <v>43675</v>
+      </c>
+      <c r="EV1" s="16">
+        <v>43676</v>
+      </c>
+      <c r="EW1" s="16">
+        <v>43677</v>
+      </c>
+      <c r="EX1" s="16">
+        <v>43678</v>
+      </c>
+      <c r="EY1" s="16">
+        <v>43679</v>
+      </c>
+      <c r="EZ1" s="16">
+        <v>43680</v>
+      </c>
+      <c r="FA1" s="16">
+        <v>43681</v>
+      </c>
+      <c r="FB1" s="16">
+        <v>43682</v>
+      </c>
+      <c r="FC1" s="16">
+        <v>43683</v>
+      </c>
+      <c r="FD1" s="16">
+        <v>43684</v>
+      </c>
+      <c r="FE1" s="16">
+        <v>43685</v>
+      </c>
+      <c r="FF1" s="16">
+        <v>43686</v>
+      </c>
+      <c r="FG1" s="16">
+        <v>43687</v>
+      </c>
+      <c r="FH1" s="16">
+        <v>43688</v>
+      </c>
+      <c r="FI1" s="16">
+        <v>43689</v>
+      </c>
+      <c r="FJ1" s="16">
+        <v>43690</v>
+      </c>
+      <c r="FK1" s="16">
+        <v>43691</v>
+      </c>
+      <c r="FL1" s="16">
+        <v>43692</v>
+      </c>
+      <c r="FM1" s="16">
+        <v>43693</v>
+      </c>
+      <c r="FN1" s="16">
+        <v>43694</v>
+      </c>
+      <c r="FO1" s="16">
+        <v>43695</v>
+      </c>
+      <c r="FP1" s="16">
+        <v>43696</v>
+      </c>
+      <c r="FQ1" s="16">
+        <v>43697</v>
+      </c>
+      <c r="FR1" s="16">
+        <v>43698</v>
+      </c>
+      <c r="FS1" s="16">
+        <v>43699</v>
+      </c>
+      <c r="FT1" s="16">
+        <v>43700</v>
+      </c>
+      <c r="FU1" s="16">
+        <v>43701</v>
+      </c>
+      <c r="FV1" s="16">
+        <v>43702</v>
+      </c>
+      <c r="FW1" s="16">
+        <v>43703</v>
+      </c>
+      <c r="FX1" s="16">
+        <v>43704</v>
+      </c>
+      <c r="FY1" s="16">
+        <v>43705</v>
+      </c>
+      <c r="FZ1" s="16">
+        <v>43706</v>
+      </c>
+      <c r="GA1" s="16">
+        <v>43707</v>
+      </c>
+      <c r="GB1" s="16">
+        <v>43708</v>
+      </c>
+      <c r="GC1" s="16">
+        <v>43709</v>
+      </c>
+      <c r="GD1" s="16">
+        <v>43710</v>
+      </c>
+      <c r="GE1" s="16">
+        <v>43711</v>
+      </c>
+      <c r="GF1" s="16">
+        <v>43712</v>
+      </c>
+      <c r="GG1" s="16">
+        <v>43713</v>
+      </c>
+      <c r="GH1" s="16">
+        <v>43714</v>
+      </c>
+      <c r="GI1" s="16">
+        <v>43715</v>
+      </c>
+      <c r="GJ1" s="16">
+        <v>43716</v>
+      </c>
+      <c r="GK1" s="16">
+        <v>43717</v>
+      </c>
+      <c r="GL1" s="16">
+        <v>43718</v>
+      </c>
+      <c r="GM1" s="16">
+        <v>43719</v>
+      </c>
+      <c r="GN1" s="16">
+        <v>43720</v>
+      </c>
+      <c r="GO1" s="16">
+        <v>43721</v>
+      </c>
+      <c r="GP1" s="16">
+        <v>43722</v>
+      </c>
+      <c r="GQ1" s="16">
+        <v>43723</v>
+      </c>
+      <c r="GR1" s="16">
+        <v>43724</v>
+      </c>
+      <c r="GS1" s="16">
+        <v>43725</v>
+      </c>
+      <c r="GT1" s="16">
+        <v>43726</v>
+      </c>
+      <c r="GU1" s="16">
+        <v>43727</v>
+      </c>
+      <c r="GV1" s="16">
+        <v>43728</v>
+      </c>
+      <c r="GW1" s="16">
+        <v>43729</v>
+      </c>
+      <c r="GX1" s="16">
+        <v>43730</v>
+      </c>
+      <c r="GY1" s="16">
+        <v>43731</v>
+      </c>
+      <c r="GZ1" s="16">
+        <v>43732</v>
+      </c>
+      <c r="HA1" s="16">
+        <v>43733</v>
+      </c>
+      <c r="HB1" s="16">
+        <v>43734</v>
+      </c>
+      <c r="HC1" s="16">
+        <v>43735</v>
+      </c>
+      <c r="HD1" s="16">
+        <v>43736</v>
+      </c>
+      <c r="HE1" s="16">
+        <v>43737</v>
+      </c>
+      <c r="HF1" s="16">
+        <v>43738</v>
+      </c>
+      <c r="HG1" s="16">
+        <v>43739</v>
+      </c>
+      <c r="HH1" s="16">
+        <v>43740</v>
+      </c>
+      <c r="HI1" s="16">
+        <v>43741</v>
+      </c>
+      <c r="HJ1" s="16">
+        <v>43742</v>
+      </c>
+      <c r="HK1" s="16">
+        <v>43743</v>
+      </c>
+      <c r="HL1" s="16">
+        <v>43744</v>
+      </c>
+      <c r="HM1" s="16">
+        <v>43745</v>
+      </c>
+      <c r="HN1" s="16">
+        <v>43746</v>
+      </c>
+      <c r="HO1" s="16">
+        <v>43747</v>
+      </c>
+      <c r="HP1" s="16">
+        <v>43748</v>
+      </c>
+      <c r="HQ1" s="16">
+        <v>43749</v>
+      </c>
+      <c r="HR1" s="16">
+        <v>43750</v>
+      </c>
+      <c r="HS1" s="16">
+        <v>43751</v>
+      </c>
+      <c r="HT1" s="16">
+        <v>43752</v>
+      </c>
+      <c r="HU1" s="16">
+        <v>43753</v>
+      </c>
+      <c r="HV1" s="16">
+        <v>43754</v>
+      </c>
+      <c r="HW1" s="16">
+        <v>43755</v>
+      </c>
+      <c r="HX1" s="16">
+        <v>43756</v>
+      </c>
+      <c r="HY1" s="16">
+        <v>43757</v>
+      </c>
+      <c r="HZ1" s="16">
+        <v>43758</v>
+      </c>
+      <c r="IA1" s="16">
+        <v>43759</v>
+      </c>
+      <c r="IB1" s="16">
+        <v>43760</v>
+      </c>
+      <c r="IC1" s="16">
+        <v>43761</v>
+      </c>
+      <c r="ID1" s="16">
+        <v>43762</v>
+      </c>
+      <c r="IE1" s="16">
+        <v>43763</v>
+      </c>
+      <c r="IF1" s="16">
+        <v>43764</v>
+      </c>
+      <c r="IG1" s="16">
+        <v>43765</v>
+      </c>
+      <c r="IH1" s="16">
+        <v>43766</v>
+      </c>
+      <c r="II1" s="16">
+        <v>43767</v>
+      </c>
+      <c r="IJ1" s="16">
+        <v>43768</v>
+      </c>
+      <c r="IK1" s="16">
+        <v>43769</v>
+      </c>
+      <c r="IL1" s="16">
+        <v>43770</v>
+      </c>
+      <c r="IM1" s="16">
+        <v>43771</v>
+      </c>
+      <c r="IN1" s="16">
+        <v>43772</v>
+      </c>
+      <c r="IO1" s="16">
+        <v>43773</v>
+      </c>
+      <c r="IP1" s="16">
+        <v>43774</v>
+      </c>
+      <c r="IQ1" s="16">
+        <v>43775</v>
+      </c>
+      <c r="IR1" s="16">
+        <v>43776</v>
+      </c>
+      <c r="IS1" s="16">
+        <v>43777</v>
+      </c>
+      <c r="IT1" s="16">
+        <v>43778</v>
+      </c>
+      <c r="IU1" s="16">
+        <v>43779</v>
+      </c>
+      <c r="IV1" s="16">
+        <v>43780</v>
+      </c>
+      <c r="IW1" s="16">
+        <v>43781</v>
+      </c>
+      <c r="IX1" s="16">
+        <v>43782</v>
+      </c>
+      <c r="IY1" s="16">
+        <v>43783</v>
+      </c>
+      <c r="IZ1" s="16">
+        <v>43784</v>
+      </c>
+      <c r="JA1" s="16">
+        <v>43785</v>
+      </c>
+      <c r="JB1" s="16">
+        <v>43786</v>
+      </c>
+      <c r="JC1" s="16">
+        <v>43787</v>
+      </c>
+      <c r="JD1" s="16">
+        <v>43788</v>
+      </c>
+      <c r="JE1" s="16">
+        <v>43789</v>
+      </c>
+      <c r="JF1" s="16">
+        <v>43790</v>
+      </c>
+      <c r="JG1" s="16">
+        <v>43791</v>
+      </c>
+      <c r="JH1" s="16">
+        <v>43792</v>
+      </c>
+      <c r="JI1" s="16">
+        <v>43793</v>
+      </c>
+      <c r="JJ1" s="16">
+        <v>43794</v>
+      </c>
+      <c r="JK1" s="16">
+        <v>43795</v>
+      </c>
+      <c r="JL1" s="16">
+        <v>43796</v>
+      </c>
+      <c r="JM1" s="16">
+        <v>43797</v>
+      </c>
+      <c r="JN1" s="16">
+        <v>43798</v>
+      </c>
+      <c r="JO1" s="16">
+        <v>43799</v>
+      </c>
+      <c r="JP1" s="16">
+        <v>43800</v>
+      </c>
+      <c r="JQ1" s="16">
+        <v>43801</v>
+      </c>
+      <c r="JR1" s="16">
+        <v>43802</v>
+      </c>
+      <c r="JS1" s="16">
+        <v>43803</v>
+      </c>
+      <c r="JT1" s="16">
+        <v>43804</v>
+      </c>
+      <c r="JU1" s="16">
+        <v>43805</v>
+      </c>
+      <c r="JV1" s="16">
+        <v>43806</v>
+      </c>
+      <c r="JW1" s="16">
+        <v>43807</v>
+      </c>
+      <c r="JX1" s="16">
+        <v>43808</v>
+      </c>
+      <c r="JY1" s="16">
+        <v>43809</v>
+      </c>
+      <c r="JZ1" s="16">
+        <v>43810</v>
+      </c>
+      <c r="KA1" s="16">
+        <v>43811</v>
+      </c>
+      <c r="KB1" s="16">
+        <v>43812</v>
+      </c>
+      <c r="KC1" s="16">
+        <v>43813</v>
+      </c>
+      <c r="KD1" s="16">
+        <v>43814</v>
+      </c>
+      <c r="KE1" s="16">
+        <v>43815</v>
+      </c>
+      <c r="KF1" s="16">
+        <v>43816</v>
+      </c>
+      <c r="KG1" s="16">
+        <v>43817</v>
+      </c>
+      <c r="KH1" s="16">
+        <v>43818</v>
+      </c>
+      <c r="KI1" s="16">
+        <v>43819</v>
+      </c>
+      <c r="KJ1" s="16">
+        <v>43820</v>
+      </c>
+      <c r="KK1" s="16">
+        <v>43821</v>
+      </c>
+      <c r="KL1" s="16">
+        <v>43822</v>
+      </c>
+      <c r="KM1" s="16">
+        <v>43823</v>
+      </c>
+      <c r="KN1" s="16">
+        <v>43824</v>
+      </c>
+      <c r="KO1" s="16">
+        <v>43825</v>
+      </c>
+      <c r="KP1" s="16">
+        <v>43826</v>
+      </c>
+      <c r="KQ1" s="16">
+        <v>43827</v>
+      </c>
+      <c r="KR1" s="16">
+        <v>43828</v>
+      </c>
+      <c r="KS1" s="16">
+        <v>43829</v>
+      </c>
+      <c r="KT1" s="16">
+        <v>43830</v>
+      </c>
+      <c r="KU1" s="16">
+        <v>43831</v>
+      </c>
+      <c r="KV1" s="16">
+        <v>43832</v>
+      </c>
+      <c r="KW1" s="16">
+        <v>43833</v>
+      </c>
+      <c r="KX1" s="16">
+        <v>43834</v>
+      </c>
+      <c r="KY1" s="16">
+        <v>43835</v>
+      </c>
+      <c r="KZ1" s="16">
+        <v>43836</v>
+      </c>
+      <c r="LA1" s="16">
+        <v>43837</v>
+      </c>
+      <c r="LB1" s="16">
+        <v>43838</v>
+      </c>
+      <c r="LC1" s="16">
+        <v>43839</v>
+      </c>
+      <c r="LD1" s="16">
+        <v>43840</v>
+      </c>
+      <c r="LE1" s="16">
+        <v>43841</v>
+      </c>
+      <c r="LF1" s="16">
+        <v>43842</v>
+      </c>
+      <c r="LG1" s="16">
+        <v>43843</v>
+      </c>
+      <c r="LH1" s="16">
+        <v>43844</v>
+      </c>
+      <c r="LI1" s="16">
+        <v>43845</v>
+      </c>
+      <c r="LJ1" s="16">
+        <v>43846</v>
+      </c>
+      <c r="LK1" s="16">
+        <v>43847</v>
+      </c>
+      <c r="LL1" s="16">
+        <v>43848</v>
+      </c>
+      <c r="LM1" s="16">
+        <v>43849</v>
+      </c>
+      <c r="LN1" s="16">
+        <v>43850</v>
+      </c>
+      <c r="LO1" s="16">
+        <v>43851</v>
+      </c>
+      <c r="LP1" s="16">
+        <v>43852</v>
+      </c>
+      <c r="LQ1" s="16">
+        <v>43853</v>
+      </c>
+      <c r="LR1" s="16">
+        <v>43854</v>
+      </c>
+      <c r="LS1" s="16">
+        <v>43855</v>
+      </c>
+      <c r="LT1" s="16">
+        <v>43856</v>
+      </c>
+      <c r="LU1" s="16">
+        <v>43857</v>
+      </c>
+      <c r="LV1" s="16">
+        <v>43858</v>
+      </c>
+      <c r="LW1" s="16">
+        <v>43859</v>
+      </c>
+      <c r="LX1" s="16">
+        <v>43860</v>
+      </c>
+      <c r="LY1" s="16">
+        <v>43861</v>
+      </c>
+      <c r="LZ1" s="16">
+        <v>43862</v>
+      </c>
+      <c r="MA1" s="16">
+        <v>43863</v>
+      </c>
+      <c r="MB1" s="16">
+        <v>43864</v>
+      </c>
+      <c r="MC1" s="16">
+        <v>43865</v>
+      </c>
+      <c r="MD1" s="16">
+        <v>43866</v>
+      </c>
+      <c r="ME1" s="16">
+        <v>43867</v>
+      </c>
+      <c r="MF1" s="16">
+        <v>43868</v>
+      </c>
+      <c r="MG1" s="16">
+        <v>43869</v>
+      </c>
+      <c r="MH1" s="16">
+        <v>43870</v>
+      </c>
+      <c r="MI1" s="16">
+        <v>43871</v>
+      </c>
+      <c r="MJ1" s="16">
+        <v>43872</v>
+      </c>
+      <c r="MK1" s="16">
+        <v>43873</v>
+      </c>
+      <c r="ML1" s="16">
+        <v>43874</v>
+      </c>
+      <c r="MM1" s="16">
+        <v>43875</v>
+      </c>
+      <c r="MN1" s="16">
+        <v>43876</v>
+      </c>
+      <c r="MO1" s="16">
+        <v>43877</v>
+      </c>
+      <c r="MP1" s="16">
+        <v>43878</v>
+      </c>
+      <c r="MQ1" s="16">
+        <v>43879</v>
+      </c>
+      <c r="MR1" s="16">
+        <v>43880</v>
+      </c>
+      <c r="MS1" s="16">
+        <v>43881</v>
+      </c>
+      <c r="MT1" s="16">
+        <v>43882</v>
+      </c>
+      <c r="MU1" s="16">
+        <v>43883</v>
+      </c>
+      <c r="MV1" s="16">
+        <v>43884</v>
+      </c>
+      <c r="MW1" s="16">
+        <v>43885</v>
+      </c>
+      <c r="MX1" s="16">
+        <v>43886</v>
+      </c>
+      <c r="MY1" s="16">
+        <v>43887</v>
+      </c>
     </row>
-    <row r="2" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="14">
         <f>SUM(C2:KD2)</f>
-        <v>52.390000000000008</v>
+        <v>60.830000000000013</v>
       </c>
       <c r="C2" s="14">
         <v>2.76</v>
@@ -1369,222 +2042,1640 @@
       <c r="K2" s="14">
         <v>5.85</v>
       </c>
+      <c r="L2" s="14">
+        <v>4.45</v>
+      </c>
+      <c r="M2" s="14">
+        <v>3.99</v>
+      </c>
     </row>
-    <row r="3" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="14">
-        <f t="shared" ref="B3:B15" si="0">SUM(C3:KD3)</f>
-        <v>6.6400000000000006</v>
+        <f t="shared" ref="B3:B12" si="0">SUM(C3:KD3)</f>
+        <v>16.04</v>
       </c>
       <c r="F3" s="14">
         <v>2.2400000000000002</v>
       </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
       <c r="J3" s="14">
-        <v>4.4000000000000004</v>
+        <v>5.6</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="M3" s="14">
+        <v>2.8</v>
       </c>
     </row>
-    <row r="4" spans="1:141" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
-        <v>66</v>
+    <row r="4" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="B4" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.870000000000005</v>
+      </c>
+      <c r="F4" s="14">
+        <v>18.21</v>
+      </c>
+      <c r="G4" s="14">
+        <v>3.37</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1.19</v>
+      </c>
+      <c r="I4" s="14">
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2.37</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2.06</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="M4" s="14">
+        <v>1.69</v>
       </c>
     </row>
-    <row r="5" spans="1:141" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>73</v>
+    <row r="5" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="B5" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K5" s="14">
+        <v>9</v>
+      </c>
+      <c r="L5" s="14">
+        <v>2</v>
+      </c>
+      <c r="M5" s="14">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:141" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="22">
+    <row r="9" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>98</v>
-      </c>
+    <row r="11" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>99</v>
-      </c>
+    <row r="12" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:363" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="18">
+        <f>SUM(B2:B12)</f>
+        <v>126.74000000000001</v>
+      </c>
+      <c r="C13" s="18">
+        <f>SUM(C2:C12)</f>
+        <v>2.76</v>
+      </c>
+      <c r="D13" s="18">
+        <f>SUM(D2:D12)</f>
+        <v>5.81</v>
+      </c>
+      <c r="E13" s="18">
+        <f>SUM(E2:E12)</f>
+        <v>11.53</v>
+      </c>
+      <c r="F13" s="18">
+        <f>SUM(F2:F12)</f>
+        <v>30.910000000000004</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" ref="G13:BR13" si="1">SUM(G2:G12)</f>
+        <v>7.37</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="1"/>
+        <v>4.6400000000000006</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="1"/>
+        <v>8.67</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="1"/>
+        <v>14.18</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="1"/>
+        <v>16.91</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="1"/>
+        <v>10.48</v>
+      </c>
+      <c r="M13" s="18">
+        <f t="shared" si="1"/>
+        <v>13.48</v>
+      </c>
+      <c r="N13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BO13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS13" s="18">
+        <f t="shared" ref="BS13:ED13" si="2">SUM(BS2:BS12)</f>
+        <v>0</v>
+      </c>
+      <c r="BT13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BU13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BV13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BW13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BX13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BY13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CA13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CC13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CD13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CE13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CF13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CG13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CH13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CI13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CK13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CL13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CM13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CN13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CO13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CP13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CR13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CS13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CT13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CU13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CV13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CW13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CX13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CY13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DA13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DB13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DC13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DD13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DE13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DF13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DG13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DH13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DI13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DK13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DL13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DM13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DN13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DO13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DP13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DQ13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DR13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DS13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DT13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DU13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DV13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DW13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DX13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DY13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DZ13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EA13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EB13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EC13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ED13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EE13" s="18">
+        <f t="shared" ref="EE13:GP13" si="3">SUM(EE2:EE12)</f>
+        <v>0</v>
+      </c>
+      <c r="EF13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EG13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EH13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EI13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EJ13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EK13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EL13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EM13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EN13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EO13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EP13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EQ13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ER13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ES13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ET13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EU13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EV13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EW13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EX13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EY13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EZ13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FA13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FB13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FC13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FD13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FE13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FF13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FG13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FH13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FI13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FJ13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FK13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FL13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FM13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FN13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FO13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FP13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FQ13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FR13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FS13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FT13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FU13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FV13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FW13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FX13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FY13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FZ13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GA13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GB13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GC13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GD13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GE13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GF13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GG13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GH13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GI13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GJ13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GK13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GL13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GM13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GN13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GO13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GP13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GQ13" s="18">
+        <f t="shared" ref="GQ13:JB13" si="4">SUM(GQ2:GQ12)</f>
+        <v>0</v>
+      </c>
+      <c r="GR13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="GS13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="GT13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="GU13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="GV13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="GW13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="GX13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="GY13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="GZ13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HA13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HB13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HC13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HD13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HE13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HF13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HG13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HH13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HI13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HJ13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HK13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HL13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HM13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HN13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HO13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HP13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HQ13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HR13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HS13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HT13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HU13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HV13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HW13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HX13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HY13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HZ13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IA13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IB13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IC13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="ID13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IE13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IF13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IG13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IH13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="II13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IJ13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IK13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IL13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IM13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IN13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IO13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IP13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IQ13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IR13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IS13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IT13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IU13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IV13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IW13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IX13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IY13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IZ13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JA13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JB13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JC13" s="18">
+        <f t="shared" ref="JC13:LN13" si="5">SUM(JC2:JC12)</f>
+        <v>0</v>
+      </c>
+      <c r="JD13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JE13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JF13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JG13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JH13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JI13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JJ13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JK13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JL13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JM13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JN13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JO13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JP13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JQ13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JR13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JS13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JT13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JU13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JV13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JW13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JX13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JY13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="JZ13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KA13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KB13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KC13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KD13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KE13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KF13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KG13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KH13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KI13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KJ13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KK13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KL13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KM13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KN13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KO13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KP13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KQ13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KR13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KS13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KT13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KU13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KV13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KW13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KX13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KY13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="KZ13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LA13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LB13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LC13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LD13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LE13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LF13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LG13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LH13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LI13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LJ13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LK13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LL13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LM13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LN13" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LO13" s="18">
+        <f t="shared" ref="LO13:MY13" si="6">SUM(LO2:LO12)</f>
+        <v>0</v>
+      </c>
+      <c r="LP13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LQ13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LR13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LS13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LT13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LU13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LV13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LW13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LX13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LY13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="LZ13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MA13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MB13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MC13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MD13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="ME13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MF13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MG13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MH13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MI13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MJ13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MK13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="ML13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MM13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MN13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MO13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MP13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MQ13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MR13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MS13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MT13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MU13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MV13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MW13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MX13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="MY13" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="16" spans="1:363" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:141" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="17" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:141" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="18">
-        <f>SUM(B2:B15)</f>
-        <v>59.030000000000008</v>
-      </c>
-      <c r="C16" s="18">
-        <f t="shared" ref="C16:E16" si="1">SUM(C2:C15)</f>
-        <v>2.76</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" si="1"/>
-        <v>5.81</v>
-      </c>
-      <c r="E16" s="18">
-        <f t="shared" si="1"/>
-        <v>11.53</v>
-      </c>
-      <c r="F16" s="18">
-        <f>SUM(F2:F15)</f>
-        <v>12.700000000000001</v>
-      </c>
-      <c r="G16" s="18">
-        <f t="shared" ref="G16:T16" si="2">SUM(G2:G15)</f>
-        <v>3</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="2"/>
-        <v>1.95</v>
-      </c>
-      <c r="I16" s="18">
-        <f t="shared" si="2"/>
-        <v>4.82</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" si="2"/>
-        <v>10.61</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="2"/>
-        <v>5.85</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="18" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1598,16 +3689,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -2554,7 +4645,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>15001254363</v>
       </c>
@@ -2585,8 +4676,14 @@
       <c r="J2" s="6">
         <v>1.46</v>
       </c>
+      <c r="K2" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>18811550706</v>
       </c>
@@ -2617,8 +4714,14 @@
       <c r="J3" s="6">
         <v>1.46</v>
       </c>
+      <c r="K3" s="6">
+        <v>1.45</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1.47</v>
+      </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>18811500706</v>
       </c>
@@ -2646,8 +4749,14 @@
       <c r="J4" s="6">
         <v>1.47</v>
       </c>
+      <c r="K4" s="6">
+        <v>1.45</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.46</v>
+      </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>18811553802</v>
       </c>
@@ -2675,33 +4784,39 @@
       <c r="J5" s="6">
         <v>1.46</v>
       </c>
+      <c r="K5" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
@@ -2743,11 +4858,11 @@
       </c>
       <c r="K15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
@@ -3974,16 +6089,16 @@
   <dimension ref="A1:LC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -4930,7 +7045,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>15001254363</v>
       </c>
@@ -4940,8 +7055,14 @@
       <c r="I2" s="6">
         <v>2</v>
       </c>
+      <c r="K2" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>18811550706</v>
       </c>
@@ -4951,8 +7072,14 @@
       <c r="I3" s="6">
         <v>1.2</v>
       </c>
+      <c r="K3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>18811500706</v>
       </c>
@@ -4965,8 +7092,14 @@
       <c r="I4" s="6">
         <v>0.8</v>
       </c>
+      <c r="K4" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>18811553802</v>
       </c>
@@ -4979,33 +7112,39 @@
       <c r="I5" s="6">
         <v>1.6</v>
       </c>
+      <c r="K5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
@@ -5047,11 +7186,11 @@
       </c>
       <c r="K15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
@@ -6277,16 +8416,16 @@
   <dimension ref="A1:LC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -7233,103 +9372,58 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>15001254363</v>
       </c>
       <c r="B2" s="6">
         <f>SUM(E2:LC2)</f>
-        <v>14.72</v>
-      </c>
-      <c r="E2" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1.06</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="I2" s="6">
-        <v>2.2000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J2" s="6">
-        <v>1.08</v>
+        <v>5</v>
+      </c>
+      <c r="L2" s="6">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>18811550706</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B14" si="0">SUM(E3:LC3)</f>
-        <v>6.2399999999999993</v>
-      </c>
-      <c r="E3" s="6">
-        <v>5.57</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="J3" s="6">
-        <v>0.14000000000000001</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
-      <c r="A4" s="23">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>18811500706</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>3.3600000000000003</v>
-      </c>
-      <c r="H4" s="6">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.16</v>
+        <v>2</v>
       </c>
       <c r="J4" s="6">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>18811553802</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>6.2299999999999995</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5.34</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.14000000000000001</v>
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
@@ -7338,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
@@ -7347,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
@@ -7356,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
@@ -7365,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
@@ -7374,37 +9468,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="20">
         <f>SUM(B2:B14)</f>
-        <v>30.55</v>
+        <v>16</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ref="C15:BN15" si="1">SUM(C2:C14)</f>
@@ -7416,35 +9510,35 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" si="1"/>
-        <v>18.21</v>
+        <v>0</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" si="1"/>
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="1"/>
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="H15" s="20">
         <f t="shared" si="1"/>
-        <v>3.8499999999999996</v>
+        <v>0</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>9</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" si="1"/>
@@ -8670,17 +10764,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -9627,52 +11721,127 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>15001254363</v>
       </c>
       <c r="B2" s="6">
         <f>SUM(E2:LC2)</f>
-        <v>5</v>
+        <v>18.91</v>
+      </c>
+      <c r="E2" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2.2000000000000002</v>
       </c>
       <c r="J2" s="6">
-        <v>5</v>
+        <v>1.58</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2.31</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1.38</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>18811550706</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B14" si="0">SUM(E3:LC3)</f>
-        <v>2</v>
+        <v>6.4099999999999993</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.01</v>
       </c>
       <c r="J3" s="6">
-        <v>2</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
-      <c r="A4" s="23">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>18811500706</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.6600000000000006</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.16</v>
       </c>
       <c r="J4" s="6">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>18811553802</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2899999999999991</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5.34</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
@@ -9681,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
@@ -9690,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
@@ -9699,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
@@ -9708,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
@@ -9717,37 +11886,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="20">
         <f>SUM(B2:B14)</f>
-        <v>9</v>
+        <v>35.269999999999996</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" ref="C15:BN15" si="1">SUM(C2:C14)</f>
@@ -9759,35 +11928,35 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.21</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="H15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8499999999999996</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2.06</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5300000000000002</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" si="1"/>
@@ -11017,13 +13186,13 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -11970,7 +14139,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>15001254363</v>
       </c>
@@ -11979,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>18811550706</v>
       </c>
@@ -11988,8 +14157,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
-      <c r="A4" s="23">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
         <v>18811500706</v>
       </c>
       <c r="B4" s="6">
@@ -11997,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>18811553802</v>
       </c>
@@ -12006,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
@@ -12015,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
@@ -12024,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
@@ -12033,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
@@ -12042,7 +14211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
@@ -12051,31 +14220,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
@@ -13350,13 +15519,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:315" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
@@ -14303,7 +16472,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>15001254363</v>
       </c>
@@ -14312,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>18811550706</v>
       </c>
@@ -14321,8 +16490,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:315" x14ac:dyDescent="0.4">
-      <c r="A4" s="23">
+    <row r="4" spans="1:315" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
         <v>18811500706</v>
       </c>
       <c r="B4" s="6">
@@ -14330,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>18811553802</v>
       </c>
@@ -14339,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>13651104102</v>
       </c>
@@ -14348,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>18811333264</v>
       </c>
@@ -14357,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>13693283264</v>
       </c>
@@ -14366,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>18811517357</v>
       </c>
@@ -14375,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>18811172159</v>
       </c>
@@ -14384,31 +16553,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:315" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:315" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:315" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
@@ -15683,17 +17852,17 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="59.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="59.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="141.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="141.5" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -15707,7 +17876,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -15724,7 +17893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -15741,7 +17910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
@@ -15755,7 +17924,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
@@ -15769,7 +17938,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>87</v>
       </c>
@@ -15783,7 +17952,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>89</v>
       </c>
@@ -15794,7 +17963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>92</v>
       </c>
@@ -15821,22 +17990,22 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15874,7 +18043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -15903,7 +18072,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -15926,7 +18095,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -15957,7 +18126,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -15984,7 +18153,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -16013,7 +18182,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -16038,7 +18207,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -16065,7 +18234,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -16082,7 +18251,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -16099,7 +18268,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -16116,7 +18285,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -16133,7 +18302,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -16150,7 +18319,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -16167,7 +18336,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -16184,7 +18353,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -16201,7 +18370,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -16218,7 +18387,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -16235,7 +18404,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -16250,7 +18419,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -16265,7 +18434,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -16280,7 +18449,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -16295,7 +18464,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -16310,7 +18479,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -16325,7 +18494,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -16340,7 +18509,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -16353,7 +18522,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -16366,7 +18535,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -16379,7 +18548,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -16392,7 +18561,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -16405,7 +18574,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -16418,7 +18587,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -16431,7 +18600,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -16444,7 +18613,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
